--- a/전선.xlsx
+++ b/전선.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_project\tele_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_project\tele_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46477A87-6F33-40E0-AB1E-EF4EC0CA1448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3DAA7F-F909-4A83-92FD-58C8844A1B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{1759234D-30EE-461E-8322-73F2168A7125}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1759234D-30EE-461E-8322-73F2168A7125}"/>
   </bookViews>
   <sheets>
     <sheet name="전선" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -699,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,9 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,10 +760,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -775,13 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,10 +835,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1270,19 +1258,19 @@
       <selection pane="topRight" activeCell="A14" sqref="A14:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.0625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="9.3125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.0625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1290,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -1298,7 +1286,7 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1326,7 +1314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2020</v>
       </c>
@@ -1352,7 +1340,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2021</v>
       </c>
@@ -1393,7 +1381,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>2022</v>
       </c>
@@ -1434,7 +1422,7 @@
         <v>1.8492063492063493</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>2023</v>
       </c>
@@ -1475,7 +1463,7 @@
         <v>0.14206128133704735</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>2024</v>
       </c>
@@ -1518,7 +1506,7 @@
         <v>5.4463414634146341</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1532,12 +1520,12 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
         <v>31</v>
       </c>
@@ -1545,11 +1533,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="32" t="s">
         <v>19</v>
       </c>
       <c r="L13" t="s">
@@ -1571,8 +1559,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>0</v>
@@ -1620,211 +1608,211 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31">
         <v>61050</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="31">
         <v>5835</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="31">
         <v>9800</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="31">
         <v>9975</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="31">
         <v>21684</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="31">
         <v>2088</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="31">
         <v>17536</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="31">
         <v>116432</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="31">
         <v>47275</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="31">
         <v>1618156</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="31">
         <v>50542</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="31">
         <v>32076</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="31">
         <v>95467</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="31">
         <v>37113</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="31">
         <v>1343084</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31">
         <v>25.57</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="31">
         <v>38.33</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="31">
         <v>31.37</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="31">
         <v>18.59</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="31">
         <v>28.44</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="31">
         <v>31.29</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="31">
         <v>17.920000000000002</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="31">
         <v>23.21</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="31">
         <v>21.23</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="31">
         <v>29.69</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="31">
         <v>73.290000000000006</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16" s="31">
         <v>15.72</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="31">
         <v>33.76</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="31">
         <v>45.29</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="31">
         <v>40.33</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31">
         <v>3.29</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="31">
         <v>2.69</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="31">
         <v>5.29</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="31">
         <v>1.31</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="31">
         <v>1.47</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="31">
         <v>1.9</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="31">
         <v>4.03</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="31">
         <v>7.74</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="31">
         <v>2.4700000000000002</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="31">
         <v>6.37</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="31">
         <v>14.86</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="31">
         <v>4.8</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17" s="31">
         <v>4.8499999999999996</v>
       </c>
-      <c r="P17" s="35">
+      <c r="P17" s="31">
         <v>2.59</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="31">
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31">
         <v>13.44</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="31">
         <v>19</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="31">
         <v>6.46</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="31">
         <v>5.85</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="31">
         <v>6.35</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="31">
         <v>29.88</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="31">
         <v>39.08</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="31">
         <v>14.9</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="31">
         <v>20.22</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M18" s="31">
         <v>22.29</v>
       </c>
-      <c r="N18" s="35">
+      <c r="N18" s="31">
         <v>36.19</v>
       </c>
-      <c r="O18" s="35">
+      <c r="O18" s="31">
         <v>15.65</v>
       </c>
-      <c r="P18" s="35">
+      <c r="P18" s="31">
         <v>6.01</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18" s="31">
         <v>26.73</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -1849,35 +1837,35 @@
       <c r="H19" s="2">
         <v>3673</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="2">
         <v>643</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="2">
         <v>18113</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="2">
         <v>29840</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="2">
         <v>17858</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="2">
         <v>4371</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="2">
         <v>518</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="2">
         <v>1128</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="2">
         <v>1062</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="2">
         <v>8599</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="2">
         <v>2021</v>
@@ -1900,35 +1888,35 @@
       <c r="H20" s="2">
         <v>4750</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="2">
         <v>648</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="2">
         <v>18060</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="2">
         <v>30947</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="2">
         <v>19628</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="2">
         <v>4998</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="2">
         <v>471</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="2">
         <v>1220</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="2">
         <v>481</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="2">
         <v>10876</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="2">
         <v>2022</v>
@@ -1951,35 +1939,35 @@
       <c r="H21" s="2">
         <v>5624</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="2">
         <v>1183</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="2">
         <v>21045</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="2">
         <v>35101</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="2">
         <v>20752</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="2">
         <v>5692</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="2">
         <v>533</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="2">
         <v>1461</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="2">
         <v>526</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="2">
         <v>12623</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="2">
         <v>2023</v>
@@ -2002,91 +1990,91 @@
       <c r="H22" s="2">
         <v>5154</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="2">
         <v>2145</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="2">
         <v>27028</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="2">
         <v>43006</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="2">
         <v>23196</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="2">
         <v>6863</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="2">
         <v>699</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="2">
         <v>1741</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="2">
         <v>1324</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="2">
         <v>12555</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="2">
         <v>2024</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="2">
         <v>45518</v>
       </c>
       <c r="D23" s="2">
         <v>1303</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="2">
         <v>8690</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="2">
         <v>17271</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="2">
         <v>32913</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="2">
         <v>5528</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="2">
         <v>3340</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="2">
         <v>33223</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="2">
         <v>48950</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="2">
         <v>24878</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="2">
         <v>8012</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="2">
         <v>1012</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="2">
         <v>1984</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="2">
         <v>1538</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="2">
         <v>15223</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="2">
         <v>2025</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="2">
         <v>51020</v>
       </c>
       <c r="D24" s="2"/>
@@ -2100,32 +2088,32 @@
         <v>35922</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="12">
+      <c r="I24" s="2">
         <v>4622</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="2">
         <v>41335</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="2">
         <v>54702</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="12">
+      <c r="P24" s="2">
         <v>1578</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="2">
         <v>2020</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="2">
         <v>1337</v>
       </c>
       <c r="D25" s="2">
@@ -2143,244 +2131,244 @@
       <c r="H25" s="2">
         <v>43</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="2">
         <v>18</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="2">
         <v>727</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="2">
         <v>441</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="2">
         <v>1824</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="2">
         <v>240</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="2">
         <v>19</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="2">
         <v>109</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="2">
         <v>79</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="2">
         <v>1638</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="2">
         <v>2021</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="2">
         <v>1551</v>
       </c>
       <c r="D26" s="2">
         <v>-51</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="2">
         <v>282</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="2">
         <v>166</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="2">
         <v>395</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="2">
         <v>23</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="2">
         <v>5</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="2">
         <v>97</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="2">
         <v>1201</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="2">
         <v>2463</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="2">
         <v>263</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="2">
         <v>1</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="2">
         <v>83</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="2">
         <v>47</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="2">
         <v>2105</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>2022</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="2">
         <v>1875</v>
       </c>
       <c r="D27" s="2">
         <v>-66</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="2">
         <v>275</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="2">
         <v>285</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="2">
         <v>482</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="2">
         <v>13</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="2">
         <v>130</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="2">
         <v>1330</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="2">
         <v>1432</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="2">
         <v>3031</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="2">
         <v>227</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="2">
         <v>7</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="2">
         <v>36</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="2">
         <v>79</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q27" s="2">
         <v>2586</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="2">
         <v>2023</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="2">
         <v>3249</v>
       </c>
       <c r="D28" s="2">
         <v>131</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="2">
         <v>295</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="2">
         <v>437</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="2">
         <v>798</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="2">
         <v>131</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="2">
         <v>466</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="2">
         <v>3152</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="2">
         <v>2578</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="2">
         <v>3978</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="2">
         <v>888</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="2">
         <v>63</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="2">
         <v>212</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="2">
         <v>174</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="Q28" s="2">
         <v>2560</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="2">
         <v>2024</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="2">
         <v>3897</v>
       </c>
       <c r="D29" s="2">
         <v>124</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="2">
         <v>448</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="2">
         <v>450</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="2">
         <v>1152</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="2">
         <v>143</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="2">
         <v>1092</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="2">
         <v>6690</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="2">
         <v>3625</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="2">
         <v>4696</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="2">
         <v>1377</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="2">
         <v>179</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="2">
         <v>299</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="2">
         <v>222</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="Q29" s="2">
         <v>3157</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="2">
         <v>2025</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="2">
         <v>4708</v>
       </c>
       <c r="D30" s="2"/>
@@ -2394,402 +2382,402 @@
         <v>1328</v>
       </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="12">
+      <c r="I30" s="2">
         <v>1621</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="2">
         <v>9136</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="2">
         <v>5206</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="12">
+      <c r="P30" s="2">
         <v>236</v>
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="2">
         <v>2020</v>
       </c>
-      <c r="C31" s="13">
-        <f>C25/C19</f>
+      <c r="C31" s="12">
+        <f t="shared" ref="C31:Q31" si="1">C25/C19</f>
         <v>5.5645731884962753E-2</v>
       </c>
-      <c r="D31" s="13">
-        <f>D25/D19</f>
+      <c r="D31" s="12">
+        <f t="shared" si="1"/>
         <v>-7.8544061302681989E-2</v>
       </c>
-      <c r="E31" s="13">
-        <f>E25/E19</f>
+      <c r="E31" s="12">
+        <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="F31" s="13">
-        <f>F25/F19</f>
+      <c r="F31" s="12">
+        <f t="shared" si="1"/>
         <v>1.4812222999766736E-2</v>
       </c>
-      <c r="G31" s="13">
-        <f>G25/G19</f>
+      <c r="G31" s="12">
+        <f t="shared" si="1"/>
         <v>3.5445891783567135E-2</v>
       </c>
-      <c r="H31" s="13">
-        <f>H25/H19</f>
+      <c r="H31" s="12">
+        <f t="shared" si="1"/>
         <v>1.1707051456575007E-2</v>
       </c>
-      <c r="I31" s="13">
-        <f>I25/I19</f>
+      <c r="I31" s="12">
+        <f t="shared" si="1"/>
         <v>2.7993779160186624E-2</v>
       </c>
-      <c r="J31" s="13">
-        <f>J25/J19</f>
+      <c r="J31" s="12">
+        <f t="shared" si="1"/>
         <v>4.013691823552145E-2</v>
       </c>
-      <c r="K31" s="13">
-        <f>K25/K19</f>
+      <c r="K31" s="12">
+        <f t="shared" si="1"/>
         <v>1.477882037533512E-2</v>
       </c>
-      <c r="L31" s="43">
-        <f>L25/L19</f>
+      <c r="L31" s="39">
+        <f t="shared" si="1"/>
         <v>0.10213909732332849</v>
       </c>
-      <c r="M31" s="44">
-        <f>M25/M19</f>
+      <c r="M31" s="40">
+        <f t="shared" si="1"/>
         <v>5.4907343857240908E-2</v>
       </c>
-      <c r="N31" s="44">
-        <f>N25/N19</f>
+      <c r="N31" s="40">
+        <f t="shared" si="1"/>
         <v>3.6679536679536683E-2</v>
       </c>
-      <c r="O31" s="44">
-        <f>O25/O19</f>
+      <c r="O31" s="40">
+        <f t="shared" si="1"/>
         <v>9.6631205673758866E-2</v>
       </c>
-      <c r="P31" s="44">
-        <f>P25/P19</f>
+      <c r="P31" s="40">
+        <f t="shared" si="1"/>
         <v>7.4387947269303201E-2</v>
       </c>
-      <c r="Q31" s="44">
-        <f>Q25/Q19</f>
+      <c r="Q31" s="40">
+        <f t="shared" si="1"/>
         <v>0.19048726596115828</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="2">
         <v>2021</v>
       </c>
-      <c r="C32" s="13">
-        <f t="shared" ref="C32:D36" si="1">C26/C20</f>
+      <c r="C32" s="12">
+        <f t="shared" ref="C32:D36" si="2">C26/C20</f>
         <v>5.8126897275418803E-2</v>
       </c>
-      <c r="D32" s="13">
-        <f t="shared" si="1"/>
+      <c r="D32" s="12">
+        <f t="shared" si="2"/>
         <v>-0.1705685618729097</v>
       </c>
-      <c r="E32" s="13">
-        <f t="shared" ref="E32:F32" si="2">E26/E20</f>
+      <c r="E32" s="12">
+        <f t="shared" ref="E32:F32" si="3">E26/E20</f>
         <v>3.7569944044764186E-2</v>
       </c>
-      <c r="F32" s="13">
-        <f t="shared" si="2"/>
+      <c r="F32" s="12">
+        <f t="shared" si="3"/>
         <v>1.5508221225710016E-2</v>
       </c>
-      <c r="G32" s="13">
-        <f t="shared" ref="G32:H32" si="3">G26/G20</f>
+      <c r="G32" s="12">
+        <f t="shared" ref="G32:H32" si="4">G26/G20</f>
         <v>1.9772738649446862E-2</v>
       </c>
-      <c r="H32" s="13">
-        <f t="shared" si="3"/>
+      <c r="H32" s="12">
+        <f t="shared" si="4"/>
         <v>4.842105263157895E-3</v>
       </c>
-      <c r="I32" s="13">
-        <f t="shared" ref="I32:J32" si="4">I26/I20</f>
+      <c r="I32" s="12">
+        <f t="shared" ref="I32:J32" si="5">I26/I20</f>
         <v>7.716049382716049E-3</v>
       </c>
-      <c r="J32" s="13">
-        <f t="shared" si="4"/>
+      <c r="J32" s="12">
+        <f t="shared" si="5"/>
         <v>5.3709856035437428E-3</v>
       </c>
-      <c r="K32" s="13">
-        <f t="shared" ref="K32:L32" si="5">K26/K20</f>
+      <c r="K32" s="12">
+        <f t="shared" ref="K32:L32" si="6">K26/K20</f>
         <v>3.8808285132646135E-2</v>
       </c>
-      <c r="L32" s="28">
-        <f t="shared" si="5"/>
+      <c r="L32" s="24">
+        <f t="shared" si="6"/>
         <v>0.12548400244548605</v>
       </c>
-      <c r="M32" s="13">
-        <f t="shared" ref="M32:N32" si="6">M26/M20</f>
+      <c r="M32" s="12">
+        <f t="shared" ref="M32:N32" si="7">M26/M20</f>
         <v>5.2621048419367746E-2</v>
       </c>
-      <c r="N32" s="13">
-        <f t="shared" si="6"/>
+      <c r="N32" s="12">
+        <f t="shared" si="7"/>
         <v>2.1231422505307855E-3</v>
       </c>
-      <c r="O32" s="13">
-        <f t="shared" ref="O32:Q32" si="7">O26/O20</f>
+      <c r="O32" s="12">
+        <f t="shared" ref="O32:Q32" si="8">O26/O20</f>
         <v>6.8032786885245902E-2</v>
       </c>
-      <c r="P32" s="13">
-        <f t="shared" si="7"/>
+      <c r="P32" s="12">
+        <f t="shared" si="8"/>
         <v>9.7713097713097719E-2</v>
       </c>
-      <c r="Q32" s="13">
-        <f t="shared" si="7"/>
+      <c r="Q32" s="12">
+        <f t="shared" si="8"/>
         <v>0.19354542111070247</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="2">
         <v>2022</v>
       </c>
-      <c r="C33" s="13">
-        <f t="shared" si="1"/>
+      <c r="C33" s="12">
+        <f t="shared" si="2"/>
         <v>5.5521009149862306E-2</v>
       </c>
-      <c r="D33" s="13">
-        <f t="shared" si="1"/>
+      <c r="D33" s="12">
+        <f t="shared" si="2"/>
         <v>-0.1542056074766355</v>
       </c>
-      <c r="E33" s="13">
-        <f t="shared" ref="E33:F33" si="8">E27/E21</f>
+      <c r="E33" s="12">
+        <f t="shared" ref="E33:F33" si="9">E27/E21</f>
         <v>3.3598045204642636E-2</v>
       </c>
-      <c r="F33" s="13">
-        <f t="shared" si="8"/>
+      <c r="F33" s="12">
+        <f t="shared" si="9"/>
         <v>2.0120014119308152E-2</v>
       </c>
-      <c r="G33" s="13">
-        <f t="shared" ref="G33:H33" si="9">G27/G21</f>
+      <c r="G33" s="12">
+        <f t="shared" ref="G33:H33" si="10">G27/G21</f>
         <v>1.966945521322179E-2</v>
       </c>
-      <c r="H33" s="13">
-        <f t="shared" si="9"/>
+      <c r="H33" s="12">
+        <f t="shared" si="10"/>
         <v>2.3115220483641537E-3</v>
       </c>
-      <c r="I33" s="13">
-        <f t="shared" ref="I33:J33" si="10">I27/I21</f>
+      <c r="I33" s="12">
+        <f t="shared" ref="I33:J33" si="11">I27/I21</f>
         <v>0.10989010989010989</v>
       </c>
-      <c r="J33" s="13">
-        <f t="shared" si="10"/>
+      <c r="J33" s="12">
+        <f t="shared" si="11"/>
         <v>6.3197909242100267E-2</v>
       </c>
-      <c r="K33" s="13">
-        <f t="shared" ref="K33:L33" si="11">K27/K21</f>
+      <c r="K33" s="12">
+        <f t="shared" ref="K33:L33" si="12">K27/K21</f>
         <v>4.0796558502606765E-2</v>
       </c>
-      <c r="L33" s="28">
-        <f t="shared" si="11"/>
+      <c r="L33" s="24">
+        <f t="shared" si="12"/>
         <v>0.14605821125674634</v>
       </c>
-      <c r="M33" s="13">
-        <f t="shared" ref="M33:N33" si="12">M27/M21</f>
+      <c r="M33" s="12">
+        <f t="shared" ref="M33:N33" si="13">M27/M21</f>
         <v>3.98805340829234E-2</v>
       </c>
-      <c r="N33" s="13">
-        <f t="shared" si="12"/>
+      <c r="N33" s="12">
+        <f t="shared" si="13"/>
         <v>1.3133208255159476E-2</v>
       </c>
-      <c r="O33" s="13">
-        <f t="shared" ref="O33:Q33" si="13">O27/O21</f>
+      <c r="O33" s="12">
+        <f t="shared" ref="O33:Q33" si="14">O27/O21</f>
         <v>2.4640657084188913E-2</v>
       </c>
-      <c r="P33" s="13">
-        <f t="shared" si="13"/>
+      <c r="P33" s="12">
+        <f t="shared" si="14"/>
         <v>0.15019011406844107</v>
       </c>
-      <c r="Q33" s="13">
-        <f t="shared" si="13"/>
+      <c r="Q33" s="12">
+        <f t="shared" si="14"/>
         <v>0.20486413689297314</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="2">
         <v>2023</v>
       </c>
-      <c r="C34" s="13">
-        <f t="shared" si="1"/>
+      <c r="C34" s="12">
+        <f t="shared" si="2"/>
         <v>7.679943269117126E-2</v>
       </c>
-      <c r="D34" s="13">
-        <f t="shared" si="1"/>
+      <c r="D34" s="12">
+        <f t="shared" si="2"/>
         <v>0.18502824858757061</v>
       </c>
-      <c r="E34" s="13">
-        <f t="shared" ref="E34:F34" si="14">E28/E22</f>
+      <c r="E34" s="12">
+        <f t="shared" ref="E34:F34" si="15">E28/E22</f>
         <v>4.0350157297223362E-2</v>
       </c>
-      <c r="F34" s="13">
-        <f t="shared" si="14"/>
+      <c r="F34" s="12">
+        <f t="shared" si="15"/>
         <v>2.9160549846523422E-2</v>
       </c>
-      <c r="G34" s="13">
-        <f t="shared" ref="G34:H34" si="15">G28/G22</f>
+      <c r="G34" s="12">
+        <f t="shared" ref="G34:H34" si="16">G28/G22</f>
         <v>2.8059071729957807E-2</v>
       </c>
-      <c r="H34" s="13">
-        <f t="shared" si="15"/>
+      <c r="H34" s="12">
+        <f t="shared" si="16"/>
         <v>2.5417151726814125E-2</v>
       </c>
-      <c r="I34" s="13">
-        <f t="shared" ref="I34:J34" si="16">I28/I22</f>
+      <c r="I34" s="12">
+        <f t="shared" ref="I34:J34" si="17">I28/I22</f>
         <v>0.21724941724941724</v>
       </c>
-      <c r="J34" s="13">
-        <f t="shared" si="16"/>
+      <c r="J34" s="12">
+        <f t="shared" si="17"/>
         <v>0.11661980168713926</v>
       </c>
-      <c r="K34" s="13">
-        <f t="shared" ref="K34:L34" si="17">K28/K22</f>
+      <c r="K34" s="12">
+        <f t="shared" ref="K34:L34" si="18">K28/K22</f>
         <v>5.9945123936194951E-2</v>
       </c>
-      <c r="L34" s="28">
-        <f t="shared" si="17"/>
+      <c r="L34" s="24">
+        <f t="shared" si="18"/>
         <v>0.17149508535954475</v>
       </c>
-      <c r="M34" s="13">
-        <f t="shared" ref="M34:N34" si="18">M28/M22</f>
+      <c r="M34" s="12">
+        <f t="shared" ref="M34:N34" si="19">M28/M22</f>
         <v>0.129389479819321</v>
       </c>
-      <c r="N34" s="13">
-        <f t="shared" si="18"/>
+      <c r="N34" s="12">
+        <f t="shared" si="19"/>
         <v>9.012875536480687E-2</v>
       </c>
-      <c r="O34" s="13">
-        <f t="shared" ref="O34:Q34" si="19">O28/O22</f>
+      <c r="O34" s="12">
+        <f t="shared" ref="O34:Q34" si="20">O28/O22</f>
         <v>0.12176909821941413</v>
       </c>
-      <c r="P34" s="13">
-        <f t="shared" si="19"/>
+      <c r="P34" s="12">
+        <f t="shared" si="20"/>
         <v>0.13141993957703926</v>
       </c>
-      <c r="Q34" s="13">
-        <f t="shared" si="19"/>
+      <c r="Q34" s="12">
+        <f t="shared" si="20"/>
         <v>0.20390282755874153</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="2">
         <v>2024</v>
       </c>
-      <c r="C35" s="13">
-        <f t="shared" si="1"/>
+      <c r="C35" s="12">
+        <f t="shared" si="2"/>
         <v>8.5614482182872709E-2</v>
       </c>
-      <c r="D35" s="13">
-        <f t="shared" si="1"/>
+      <c r="D35" s="12">
+        <f t="shared" si="2"/>
         <v>9.5165003837298548E-2</v>
       </c>
-      <c r="E35" s="13">
-        <f t="shared" ref="E35:F35" si="20">E29/E23</f>
+      <c r="E35" s="12">
+        <f t="shared" ref="E35:F35" si="21">E29/E23</f>
         <v>5.1553509781357885E-2</v>
       </c>
-      <c r="F35" s="13">
-        <f t="shared" si="20"/>
+      <c r="F35" s="12">
+        <f t="shared" si="21"/>
         <v>2.6055237102657634E-2</v>
       </c>
-      <c r="G35" s="13">
-        <f t="shared" ref="G35:H35" si="21">G29/G23</f>
+      <c r="G35" s="12">
+        <f t="shared" ref="G35:H35" si="22">G29/G23</f>
         <v>3.5001367240907848E-2</v>
       </c>
-      <c r="H35" s="13">
-        <f t="shared" si="21"/>
+      <c r="H35" s="12">
+        <f t="shared" si="22"/>
         <v>2.5868306801736615E-2</v>
       </c>
-      <c r="I35" s="13">
-        <f t="shared" ref="I35:J35" si="22">I29/I23</f>
+      <c r="I35" s="12">
+        <f t="shared" ref="I35:J35" si="23">I29/I23</f>
         <v>0.32694610778443112</v>
       </c>
-      <c r="J35" s="13">
-        <f t="shared" si="22"/>
+      <c r="J35" s="12">
+        <f t="shared" si="23"/>
         <v>0.20136652319176473</v>
       </c>
-      <c r="K35" s="13">
-        <f t="shared" ref="K35:L35" si="23">K29/K23</f>
+      <c r="K35" s="12">
+        <f t="shared" ref="K35:L35" si="24">K29/K23</f>
         <v>7.4055158324821249E-2</v>
       </c>
-      <c r="L35" s="28">
-        <f t="shared" si="23"/>
+      <c r="L35" s="24">
+        <f t="shared" si="24"/>
         <v>0.18876115443363614</v>
       </c>
-      <c r="M35" s="13">
-        <f t="shared" ref="M35:N35" si="24">M29/M23</f>
+      <c r="M35" s="12">
+        <f t="shared" ref="M35:N35" si="25">M29/M23</f>
         <v>0.1718671992011982</v>
       </c>
-      <c r="N35" s="13">
-        <f t="shared" si="24"/>
+      <c r="N35" s="12">
+        <f t="shared" si="25"/>
         <v>0.17687747035573123</v>
       </c>
-      <c r="O35" s="13">
-        <f t="shared" ref="O35:Q35" si="25">O29/O23</f>
+      <c r="O35" s="12">
+        <f t="shared" ref="O35:Q35" si="26">O29/O23</f>
         <v>0.15070564516129031</v>
       </c>
-      <c r="P35" s="13">
-        <f t="shared" si="25"/>
+      <c r="P35" s="12">
+        <f t="shared" si="26"/>
         <v>0.14434330299089726</v>
       </c>
-      <c r="Q35" s="13">
-        <f t="shared" si="25"/>
+      <c r="Q35" s="12">
+        <f t="shared" si="26"/>
         <v>0.2073835643434277</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="2">
         <v>2025</v>
       </c>
-      <c r="C36" s="13">
-        <f t="shared" si="1"/>
+      <c r="C36" s="12">
+        <f t="shared" si="2"/>
         <v>9.2277538220305766E-2</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13">
-        <f t="shared" ref="E36:F36" si="26">E30/E24</f>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12">
+        <f t="shared" ref="E36:F36" si="27">E30/E24</f>
         <v>5.5873925501432664E-2</v>
       </c>
-      <c r="F36" s="13">
-        <f t="shared" si="26"/>
+      <c r="F36" s="12">
+        <f t="shared" si="27"/>
         <v>3.3591116398968869E-2</v>
       </c>
-      <c r="G36" s="13">
-        <f t="shared" ref="G36:I36" si="27">G30/G24</f>
+      <c r="G36" s="12">
+        <f t="shared" ref="G36:I36" si="28">G30/G24</f>
         <v>3.6968988363676854E-2</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13">
-        <f t="shared" si="27"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12">
+        <f t="shared" si="28"/>
         <v>0.35071397663349202</v>
       </c>
-      <c r="J36" s="13">
-        <f t="shared" ref="J36:K36" si="28">J30/J24</f>
+      <c r="J36" s="12">
+        <f t="shared" ref="J36:K36" si="29">J30/J24</f>
         <v>0.22102334583282932</v>
       </c>
-      <c r="K36" s="13">
-        <f t="shared" si="28"/>
+      <c r="K36" s="12">
+        <f t="shared" si="29"/>
         <v>9.5170194874044822E-2</v>
       </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19">
-        <f t="shared" ref="P36:Q36" si="29">P30/P24</f>
+      <c r="L36" s="25"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18">
+        <f t="shared" ref="P36" si="30">P30/P24</f>
         <v>0.14955640050697086</v>
       </c>
-      <c r="Q36" s="19"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="Q36" s="18"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
@@ -2806,316 +2794,316 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="2">
         <v>2021</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="38">
         <f>(C20-C19)/C19</f>
         <v>0.11054230657177343</v>
       </c>
-      <c r="D38" s="42">
-        <f t="shared" ref="D38:H38" si="30">(D20-D19)/D19</f>
+      <c r="D38" s="38">
+        <f t="shared" ref="D38:H38" si="31">(D20-D19)/D19</f>
         <v>-0.42720306513409961</v>
       </c>
-      <c r="E38" s="42">
-        <f t="shared" si="30"/>
+      <c r="E38" s="38">
+        <f t="shared" si="31"/>
         <v>0.29503105590062112</v>
       </c>
-      <c r="F38" s="42">
-        <f t="shared" si="30"/>
+      <c r="F38" s="38">
+        <f t="shared" si="31"/>
         <v>0.24842547235829252</v>
       </c>
-      <c r="G38" s="42">
-        <f t="shared" si="30"/>
+      <c r="G38" s="38">
+        <f t="shared" si="31"/>
         <v>0.25106462925851702</v>
       </c>
-      <c r="H38" s="42">
-        <f t="shared" si="30"/>
+      <c r="H38" s="38">
+        <f t="shared" si="31"/>
         <v>0.29322080043561122</v>
       </c>
-      <c r="I38" s="42">
-        <f t="shared" ref="I38:J38" si="31">(I20-I19)/I19</f>
+      <c r="I38" s="38">
+        <f t="shared" ref="I38:J38" si="32">(I20-I19)/I19</f>
         <v>7.7760497667185074E-3</v>
       </c>
-      <c r="J38" s="42">
-        <f t="shared" si="31"/>
+      <c r="J38" s="38">
+        <f t="shared" si="32"/>
         <v>-2.9260751946116048E-3</v>
       </c>
-      <c r="K38" s="42">
-        <f t="shared" ref="K38:L38" si="32">(K20-K19)/K19</f>
+      <c r="K38" s="38">
+        <f t="shared" ref="K38:L38" si="33">(K20-K19)/K19</f>
         <v>3.7097855227882039E-2</v>
       </c>
-      <c r="L38" s="40">
-        <f t="shared" si="32"/>
+      <c r="L38" s="36">
+        <f t="shared" si="33"/>
         <v>9.9115242468361522E-2</v>
       </c>
-      <c r="M38" s="14">
-        <f t="shared" ref="M38:N38" si="33">(M20-M19)/M19</f>
+      <c r="M38" s="13">
+        <f t="shared" ref="M38:N38" si="34">(M20-M19)/M19</f>
         <v>0.14344543582704186</v>
       </c>
-      <c r="N38" s="14">
-        <f t="shared" si="33"/>
+      <c r="N38" s="13">
+        <f t="shared" si="34"/>
         <v>-9.0733590733590733E-2</v>
       </c>
-      <c r="O38" s="14">
-        <f t="shared" ref="O38:Q38" si="34">(O20-O19)/O19</f>
+      <c r="O38" s="13">
+        <f t="shared" ref="O38:Q38" si="35">(O20-O19)/O19</f>
         <v>8.1560283687943269E-2</v>
       </c>
-      <c r="P38" s="14">
-        <f t="shared" si="34"/>
+      <c r="P38" s="13">
+        <f t="shared" si="35"/>
         <v>-0.54708097928436916</v>
       </c>
-      <c r="Q38" s="14">
-        <f t="shared" si="34"/>
+      <c r="Q38" s="13">
+        <f t="shared" si="35"/>
         <v>0.26479823235259914</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="2">
         <v>2022</v>
       </c>
-      <c r="C39" s="42">
-        <f t="shared" ref="C39:H42" si="35">(C21-C20)/C20</f>
+      <c r="C39" s="38">
+        <f t="shared" ref="C39:H42" si="36">(C21-C20)/C20</f>
         <v>0.26563729715549228</v>
       </c>
-      <c r="D39" s="42">
-        <f t="shared" si="35"/>
+      <c r="D39" s="38">
+        <f t="shared" si="36"/>
         <v>0.43143812709030099</v>
       </c>
-      <c r="E39" s="42">
-        <f t="shared" si="35"/>
+      <c r="E39" s="38">
+        <f t="shared" si="36"/>
         <v>9.0460964561683982E-2</v>
       </c>
-      <c r="F39" s="42">
-        <f t="shared" si="35"/>
+      <c r="F39" s="38">
+        <f t="shared" si="36"/>
         <v>0.32333707025411063</v>
       </c>
-      <c r="G39" s="42">
-        <f t="shared" si="35"/>
+      <c r="G39" s="38">
+        <f t="shared" si="36"/>
         <v>0.22666065975872254</v>
       </c>
-      <c r="H39" s="42">
-        <f t="shared" si="35"/>
+      <c r="H39" s="38">
+        <f t="shared" si="36"/>
         <v>0.184</v>
       </c>
-      <c r="I39" s="42">
-        <f t="shared" ref="I39:J39" si="36">(I21-I20)/I20</f>
+      <c r="I39" s="38">
+        <f t="shared" ref="I39:J39" si="37">(I21-I20)/I20</f>
         <v>0.82561728395061729</v>
       </c>
-      <c r="J39" s="42">
-        <f t="shared" si="36"/>
+      <c r="J39" s="38">
+        <f t="shared" si="37"/>
         <v>0.16528239202657807</v>
       </c>
-      <c r="K39" s="42">
-        <f t="shared" ref="K39:L39" si="37">(K21-K20)/K20</f>
+      <c r="K39" s="38">
+        <f t="shared" ref="K39:L39" si="38">(K21-K20)/K20</f>
         <v>0.13422948912657123</v>
       </c>
-      <c r="L39" s="40">
-        <f t="shared" si="37"/>
+      <c r="L39" s="36">
+        <f t="shared" si="38"/>
         <v>5.7265131444874669E-2</v>
       </c>
-      <c r="M39" s="14">
-        <f t="shared" ref="M39:N39" si="38">(M21-M20)/M20</f>
+      <c r="M39" s="13">
+        <f t="shared" ref="M39:N39" si="39">(M21-M20)/M20</f>
         <v>0.13885554221688676</v>
       </c>
-      <c r="N39" s="14">
-        <f t="shared" si="38"/>
+      <c r="N39" s="13">
+        <f t="shared" si="39"/>
         <v>0.1316348195329087</v>
       </c>
-      <c r="O39" s="14">
-        <f t="shared" ref="O39:Q39" si="39">(O21-O20)/O20</f>
+      <c r="O39" s="13">
+        <f t="shared" ref="O39:Q39" si="40">(O21-O20)/O20</f>
         <v>0.19754098360655736</v>
       </c>
-      <c r="P39" s="14">
-        <f t="shared" si="39"/>
+      <c r="P39" s="13">
+        <f t="shared" si="40"/>
         <v>9.355509355509356E-2</v>
       </c>
-      <c r="Q39" s="14">
-        <f t="shared" si="39"/>
+      <c r="Q39" s="13">
+        <f t="shared" si="40"/>
         <v>0.1606289076866495</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="2">
         <v>2023</v>
       </c>
-      <c r="C40" s="42">
-        <f t="shared" si="35"/>
+      <c r="C40" s="38">
+        <f t="shared" si="36"/>
         <v>0.25270202244529327</v>
       </c>
-      <c r="D40" s="42">
-        <f t="shared" si="35"/>
+      <c r="D40" s="38">
+        <f t="shared" si="36"/>
         <v>0.65420560747663548</v>
       </c>
-      <c r="E40" s="42">
-        <f t="shared" si="35"/>
+      <c r="E40" s="38">
+        <f t="shared" si="36"/>
         <v>-0.10678069639584606</v>
       </c>
-      <c r="F40" s="42">
-        <f t="shared" si="35"/>
+      <c r="F40" s="38">
+        <f t="shared" si="36"/>
         <v>5.7959759971761386E-2</v>
       </c>
-      <c r="G40" s="42">
-        <f t="shared" si="35"/>
+      <c r="G40" s="38">
+        <f t="shared" si="36"/>
         <v>0.16057947357682106</v>
       </c>
-      <c r="H40" s="42">
-        <f t="shared" si="35"/>
+      <c r="H40" s="38">
+        <f t="shared" si="36"/>
         <v>-8.357041251778094E-2</v>
       </c>
-      <c r="I40" s="42">
-        <f t="shared" ref="I40:J40" si="40">(I22-I21)/I21</f>
+      <c r="I40" s="38">
+        <f t="shared" ref="I40:J40" si="41">(I22-I21)/I21</f>
         <v>0.81318681318681318</v>
       </c>
-      <c r="J40" s="42">
-        <f t="shared" si="40"/>
+      <c r="J40" s="38">
+        <f t="shared" si="41"/>
         <v>0.28429555713946303</v>
       </c>
-      <c r="K40" s="42">
-        <f t="shared" ref="K40:L40" si="41">(K22-K21)/K21</f>
+      <c r="K40" s="38">
+        <f t="shared" ref="K40:L40" si="42">(K22-K21)/K21</f>
         <v>0.22520725905244865</v>
       </c>
-      <c r="L40" s="40">
-        <f t="shared" si="41"/>
+      <c r="L40" s="36">
+        <f t="shared" si="42"/>
         <v>0.11777178103315343</v>
       </c>
-      <c r="M40" s="14">
-        <f t="shared" ref="M40:N40" si="42">(M22-M21)/M21</f>
+      <c r="M40" s="13">
+        <f t="shared" ref="M40:N40" si="43">(M22-M21)/M21</f>
         <v>0.20572733661278989</v>
       </c>
-      <c r="N40" s="14">
-        <f t="shared" si="42"/>
+      <c r="N40" s="13">
+        <f t="shared" si="43"/>
         <v>0.31144465290806755</v>
       </c>
-      <c r="O40" s="14">
-        <f t="shared" ref="O40:Q40" si="43">(O22-O21)/O21</f>
+      <c r="O40" s="13">
+        <f t="shared" ref="O40:Q40" si="44">(O22-O21)/O21</f>
         <v>0.19164955509924708</v>
       </c>
-      <c r="P40" s="14">
-        <f t="shared" si="43"/>
+      <c r="P40" s="13">
+        <f t="shared" si="44"/>
         <v>1.5171102661596958</v>
       </c>
-      <c r="Q40" s="14">
-        <f t="shared" si="43"/>
+      <c r="Q40" s="13">
+        <f t="shared" si="44"/>
         <v>-5.3869919987324724E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="2">
         <v>2024</v>
       </c>
-      <c r="C41" s="42">
-        <f t="shared" si="35"/>
+      <c r="C41" s="38">
+        <f t="shared" si="36"/>
         <v>7.5948469448055791E-2</v>
       </c>
-      <c r="D41" s="42">
-        <f t="shared" si="35"/>
+      <c r="D41" s="38">
+        <f t="shared" si="36"/>
         <v>0.84039548022598876</v>
       </c>
-      <c r="E41" s="42">
-        <f t="shared" si="35"/>
+      <c r="E41" s="38">
+        <f t="shared" si="36"/>
         <v>0.18861988784024072</v>
       </c>
-      <c r="F41" s="42">
-        <f t="shared" si="35"/>
+      <c r="F41" s="38">
+        <f t="shared" si="36"/>
         <v>0.15247564393433871</v>
       </c>
-      <c r="G41" s="42">
-        <f t="shared" si="35"/>
+      <c r="G41" s="38">
+        <f t="shared" si="36"/>
         <v>0.15727848101265823</v>
       </c>
-      <c r="H41" s="42">
-        <f t="shared" si="35"/>
+      <c r="H41" s="38">
+        <f t="shared" si="36"/>
         <v>7.2564998059759411E-2</v>
       </c>
-      <c r="I41" s="42">
-        <f t="shared" ref="I41:J41" si="44">(I23-I22)/I22</f>
+      <c r="I41" s="38">
+        <f t="shared" ref="I41:J41" si="45">(I23-I22)/I22</f>
         <v>0.55710955710955712</v>
       </c>
-      <c r="J41" s="42">
-        <f t="shared" si="44"/>
+      <c r="J41" s="38">
+        <f t="shared" si="45"/>
         <v>0.22920674855705195</v>
       </c>
-      <c r="K41" s="42">
-        <f t="shared" ref="K41:L41" si="45">(K23-K22)/K22</f>
+      <c r="K41" s="38">
+        <f t="shared" ref="K41:L41" si="46">(K23-K22)/K22</f>
         <v>0.13821327256661861</v>
       </c>
-      <c r="L41" s="40">
-        <f t="shared" si="45"/>
+      <c r="L41" s="36">
+        <f t="shared" si="46"/>
         <v>7.2512502155544056E-2</v>
       </c>
-      <c r="M41" s="14">
-        <f t="shared" ref="M41:N41" si="46">(M23-M22)/M22</f>
+      <c r="M41" s="13">
+        <f t="shared" ref="M41:N41" si="47">(M23-M22)/M22</f>
         <v>0.1674194958472971</v>
       </c>
-      <c r="N41" s="14">
-        <f t="shared" si="46"/>
+      <c r="N41" s="13">
+        <f t="shared" si="47"/>
         <v>0.44778254649499283</v>
       </c>
-      <c r="O41" s="14">
-        <f t="shared" ref="O41:Q41" si="47">(O23-O22)/O22</f>
+      <c r="O41" s="13">
+        <f t="shared" ref="O41:Q41" si="48">(O23-O22)/O22</f>
         <v>0.13957495692130958</v>
       </c>
-      <c r="P41" s="14">
-        <f t="shared" si="47"/>
+      <c r="P41" s="13">
+        <f t="shared" si="48"/>
         <v>0.16163141993957703</v>
       </c>
-      <c r="Q41" s="14">
-        <f t="shared" si="47"/>
+      <c r="Q41" s="13">
+        <f t="shared" si="48"/>
         <v>0.21250497809637595</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="2">
         <v>2025</v>
       </c>
-      <c r="C42" s="42">
-        <f t="shared" si="35"/>
+      <c r="C42" s="38">
+        <f t="shared" si="36"/>
         <v>0.12087525813963707</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42">
-        <f t="shared" si="35"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38">
+        <f t="shared" si="36"/>
         <v>0.12451093210586882</v>
       </c>
-      <c r="F42" s="42">
-        <f t="shared" si="35"/>
+      <c r="F42" s="38">
+        <f t="shared" si="36"/>
         <v>0.45996178565224943</v>
       </c>
-      <c r="G42" s="42">
-        <f t="shared" si="35"/>
+      <c r="G42" s="38">
+        <f t="shared" si="36"/>
         <v>9.1422842038100444E-2</v>
       </c>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42">
-        <f t="shared" ref="I42:J42" si="48">(I24-I23)/I23</f>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38">
+        <f t="shared" ref="I42:J42" si="49">(I24-I23)/I23</f>
         <v>0.3838323353293413</v>
       </c>
-      <c r="J42" s="42">
-        <f t="shared" si="48"/>
+      <c r="J42" s="38">
+        <f t="shared" si="49"/>
         <v>0.2441681967311802</v>
       </c>
-      <c r="K42" s="42">
-        <f t="shared" ref="K42:L42" si="49">(K24-K23)/K23</f>
+      <c r="K42" s="38">
+        <f t="shared" ref="K42" si="50">(K24-K23)/K23</f>
         <v>0.1175076608784474</v>
       </c>
-      <c r="L42" s="41"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15">
-        <f t="shared" ref="O42:Q42" si="50">(P24-P23)/P23</f>
+      <c r="L42" s="37"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14">
+        <f t="shared" ref="P42" si="51">(P24-P23)/P23</f>
         <v>2.600780234070221E-2</v>
       </c>
-      <c r="Q42" s="15"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>12</v>
       </c>
@@ -3132,314 +3120,314 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="2">
         <v>2021</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="38">
         <f>(C26-C25)/C25</f>
         <v>0.1600598354525056</v>
       </c>
-      <c r="D44" s="42">
-        <f t="shared" ref="D44:H44" si="51">(D26-D25)/D25</f>
+      <c r="D44" s="38">
+        <f t="shared" ref="D44:H44" si="52">(D26-D25)/D25</f>
         <v>0.24390243902439024</v>
       </c>
-      <c r="E44" s="42">
-        <f t="shared" si="51"/>
+      <c r="E44" s="38">
+        <f t="shared" si="52"/>
         <v>0.75155279503105588</v>
       </c>
-      <c r="F44" s="42">
-        <f t="shared" si="51"/>
+      <c r="F44" s="38">
+        <f t="shared" si="52"/>
         <v>0.30708661417322836</v>
       </c>
-      <c r="G44" s="42">
-        <f t="shared" si="51"/>
+      <c r="G44" s="38">
+        <f t="shared" si="52"/>
         <v>-0.30212014134275617</v>
       </c>
-      <c r="H44" s="42">
-        <f t="shared" si="51"/>
+      <c r="H44" s="38">
+        <f t="shared" si="52"/>
         <v>-0.46511627906976744</v>
       </c>
-      <c r="I44" s="42">
-        <f t="shared" ref="I44:J44" si="52">(I26-I25)/I25</f>
+      <c r="I44" s="38">
+        <f t="shared" ref="I44:J44" si="53">(I26-I25)/I25</f>
         <v>-0.72222222222222221</v>
       </c>
-      <c r="J44" s="42">
-        <f t="shared" si="52"/>
+      <c r="J44" s="38">
+        <f t="shared" si="53"/>
         <v>-0.86657496561210456</v>
       </c>
-      <c r="K44" s="42">
-        <f t="shared" ref="K44:L44" si="53">(K26-K25)/K25</f>
+      <c r="K44" s="38">
+        <f t="shared" ref="K44:L44" si="54">(K26-K25)/K25</f>
         <v>1.7233560090702948</v>
       </c>
-      <c r="L44" s="40">
-        <f t="shared" si="53"/>
+      <c r="L44" s="36">
+        <f t="shared" si="54"/>
         <v>0.35032894736842107</v>
       </c>
-      <c r="M44" s="14">
-        <f t="shared" ref="M44:N44" si="54">(M26-M25)/M25</f>
+      <c r="M44" s="13">
+        <f t="shared" ref="M44:N44" si="55">(M26-M25)/M25</f>
         <v>9.583333333333334E-2</v>
       </c>
-      <c r="N44" s="14">
-        <f t="shared" si="54"/>
+      <c r="N44" s="13">
+        <f t="shared" si="55"/>
         <v>-0.94736842105263153</v>
       </c>
-      <c r="O44" s="14">
-        <f t="shared" ref="O44:Q44" si="55">(O26-O25)/O25</f>
+      <c r="O44" s="13">
+        <f t="shared" ref="O44:Q44" si="56">(O26-O25)/O25</f>
         <v>-0.23853211009174313</v>
       </c>
-      <c r="P44" s="14">
-        <f t="shared" si="55"/>
+      <c r="P44" s="13">
+        <f t="shared" si="56"/>
         <v>-0.4050632911392405</v>
       </c>
-      <c r="Q44" s="14">
-        <f t="shared" si="55"/>
+      <c r="Q44" s="13">
+        <f t="shared" si="56"/>
         <v>0.28510378510378509</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="2">
         <v>2022</v>
       </c>
-      <c r="C45" s="42">
-        <f t="shared" ref="C45:H48" si="56">(C27-C26)/C26</f>
+      <c r="C45" s="38">
+        <f t="shared" ref="C45:H48" si="57">(C27-C26)/C26</f>
         <v>0.20889748549323017</v>
       </c>
-      <c r="D45" s="42">
-        <f t="shared" si="56"/>
+      <c r="D45" s="38">
+        <f t="shared" si="57"/>
         <v>0.29411764705882354</v>
       </c>
-      <c r="E45" s="42">
-        <f t="shared" si="56"/>
+      <c r="E45" s="38">
+        <f t="shared" si="57"/>
         <v>-2.4822695035460994E-2</v>
       </c>
-      <c r="F45" s="42">
-        <f t="shared" si="56"/>
+      <c r="F45" s="38">
+        <f t="shared" si="57"/>
         <v>0.7168674698795181</v>
       </c>
-      <c r="G45" s="42">
-        <f t="shared" si="56"/>
+      <c r="G45" s="38">
+        <f t="shared" si="57"/>
         <v>0.22025316455696203</v>
       </c>
-      <c r="H45" s="42">
-        <f t="shared" si="56"/>
+      <c r="H45" s="38">
+        <f t="shared" si="57"/>
         <v>-0.43478260869565216</v>
       </c>
-      <c r="I45" s="42">
-        <f t="shared" ref="I45:J45" si="57">(I27-I26)/I26</f>
+      <c r="I45" s="38">
+        <f t="shared" ref="I45:J45" si="58">(I27-I26)/I26</f>
         <v>25</v>
       </c>
-      <c r="J45" s="42">
-        <f t="shared" si="57"/>
+      <c r="J45" s="38">
+        <f t="shared" si="58"/>
         <v>12.711340206185566</v>
       </c>
-      <c r="K45" s="42">
-        <f t="shared" ref="K45:L45" si="58">(K27-K26)/K26</f>
+      <c r="K45" s="38">
+        <f t="shared" ref="K45:L45" si="59">(K27-K26)/K26</f>
         <v>0.19233971690258117</v>
       </c>
-      <c r="L45" s="40">
-        <f t="shared" si="58"/>
+      <c r="L45" s="36">
+        <f t="shared" si="59"/>
         <v>0.23061307348761673</v>
       </c>
-      <c r="M45" s="14">
-        <f t="shared" ref="M45:N45" si="59">(M27-M26)/M26</f>
+      <c r="M45" s="13">
+        <f t="shared" ref="M45:N45" si="60">(M27-M26)/M26</f>
         <v>-0.13688212927756654</v>
       </c>
-      <c r="N45" s="14">
-        <f t="shared" si="59"/>
+      <c r="N45" s="13">
+        <f t="shared" si="60"/>
         <v>6</v>
       </c>
-      <c r="O45" s="14">
-        <f t="shared" ref="O45:Q45" si="60">(O27-O26)/O26</f>
+      <c r="O45" s="13">
+        <f t="shared" ref="O45:Q45" si="61">(O27-O26)/O26</f>
         <v>-0.5662650602409639</v>
       </c>
-      <c r="P45" s="14">
-        <f t="shared" si="60"/>
+      <c r="P45" s="13">
+        <f t="shared" si="61"/>
         <v>0.68085106382978722</v>
       </c>
-      <c r="Q45" s="14">
-        <f t="shared" si="60"/>
+      <c r="Q45" s="13">
+        <f t="shared" si="61"/>
         <v>0.22850356294536817</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="2">
         <v>2023</v>
       </c>
-      <c r="C46" s="42">
-        <f t="shared" si="56"/>
+      <c r="C46" s="38">
+        <f t="shared" si="57"/>
         <v>0.73280000000000001</v>
       </c>
-      <c r="D46" s="42">
-        <f t="shared" si="56"/>
+      <c r="D46" s="38">
+        <f t="shared" si="57"/>
         <v>-2.9848484848484849</v>
       </c>
-      <c r="E46" s="42">
-        <f t="shared" si="56"/>
+      <c r="E46" s="38">
+        <f t="shared" si="57"/>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="F46" s="42">
-        <f t="shared" si="56"/>
+      <c r="F46" s="38">
+        <f t="shared" si="57"/>
         <v>0.53333333333333333</v>
       </c>
-      <c r="G46" s="42">
-        <f t="shared" si="56"/>
+      <c r="G46" s="38">
+        <f t="shared" si="57"/>
         <v>0.65560165975103735</v>
       </c>
-      <c r="H46" s="42">
-        <f t="shared" si="56"/>
+      <c r="H46" s="38">
+        <f t="shared" si="57"/>
         <v>9.0769230769230766</v>
       </c>
-      <c r="I46" s="42">
-        <f t="shared" ref="I46:J46" si="61">(I28-I27)/I27</f>
+      <c r="I46" s="38">
+        <f t="shared" ref="I46:J46" si="62">(I28-I27)/I27</f>
         <v>2.5846153846153848</v>
       </c>
-      <c r="J46" s="42">
-        <f t="shared" si="61"/>
+      <c r="J46" s="38">
+        <f t="shared" si="62"/>
         <v>1.3699248120300751</v>
       </c>
-      <c r="K46" s="42">
-        <f t="shared" ref="K46:L46" si="62">(K28-K27)/K27</f>
+      <c r="K46" s="38">
+        <f t="shared" ref="K46:L46" si="63">(K28-K27)/K27</f>
         <v>0.80027932960893855</v>
       </c>
-      <c r="L46" s="40">
-        <f t="shared" si="62"/>
+      <c r="L46" s="36">
+        <f t="shared" si="63"/>
         <v>0.31243813922797758</v>
       </c>
-      <c r="M46" s="14">
-        <f t="shared" ref="M46:N46" si="63">(M28-M27)/M27</f>
+      <c r="M46" s="13">
+        <f t="shared" ref="M46:N46" si="64">(M28-M27)/M27</f>
         <v>2.9118942731277535</v>
       </c>
-      <c r="N46" s="14">
-        <f t="shared" si="63"/>
+      <c r="N46" s="13">
+        <f t="shared" si="64"/>
         <v>8</v>
       </c>
-      <c r="O46" s="14">
-        <f t="shared" ref="O46:Q46" si="64">(O28-O27)/O27</f>
+      <c r="O46" s="13">
+        <f t="shared" ref="O46:Q46" si="65">(O28-O27)/O27</f>
         <v>4.8888888888888893</v>
       </c>
-      <c r="P46" s="14">
-        <f t="shared" si="64"/>
+      <c r="P46" s="13">
+        <f t="shared" si="65"/>
         <v>1.2025316455696202</v>
       </c>
-      <c r="Q46" s="14">
-        <f t="shared" si="64"/>
+      <c r="Q46" s="13">
+        <f t="shared" si="65"/>
         <v>-1.0054137664346482E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="2">
         <v>2024</v>
       </c>
-      <c r="C47" s="42">
-        <f t="shared" si="56"/>
+      <c r="C47" s="38">
+        <f t="shared" si="57"/>
         <v>0.1994459833795014</v>
       </c>
-      <c r="D47" s="42">
-        <f t="shared" si="56"/>
+      <c r="D47" s="38">
+        <f t="shared" si="57"/>
         <v>-5.3435114503816793E-2</v>
       </c>
-      <c r="E47" s="42">
-        <f t="shared" si="56"/>
+      <c r="E47" s="38">
+        <f t="shared" si="57"/>
         <v>0.51864406779661021</v>
       </c>
-      <c r="F47" s="42">
-        <f t="shared" si="56"/>
+      <c r="F47" s="38">
+        <f t="shared" si="57"/>
         <v>2.9748283752860413E-2</v>
       </c>
-      <c r="G47" s="42">
-        <f t="shared" si="56"/>
+      <c r="G47" s="38">
+        <f t="shared" si="57"/>
         <v>0.44360902255639095</v>
       </c>
-      <c r="H47" s="42">
-        <f t="shared" si="56"/>
+      <c r="H47" s="38">
+        <f t="shared" si="57"/>
         <v>9.1603053435114504E-2</v>
       </c>
-      <c r="I47" s="42">
-        <f t="shared" ref="I47:J47" si="65">(I29-I28)/I28</f>
+      <c r="I47" s="38">
+        <f t="shared" ref="I47:J47" si="66">(I29-I28)/I28</f>
         <v>1.3433476394849786</v>
       </c>
-      <c r="J47" s="42">
-        <f t="shared" si="65"/>
+      <c r="J47" s="38">
+        <f t="shared" si="66"/>
         <v>1.1224619289340101</v>
       </c>
-      <c r="K47" s="42">
-        <f t="shared" ref="K47:L47" si="66">(K29-K28)/K28</f>
+      <c r="K47" s="38">
+        <f t="shared" ref="K47:L47" si="67">(K29-K28)/K28</f>
         <v>0.40612878200155161</v>
       </c>
-      <c r="L47" s="40">
-        <f t="shared" si="66"/>
+      <c r="L47" s="36">
+        <f t="shared" si="67"/>
         <v>0.18049270990447461</v>
       </c>
-      <c r="M47" s="14">
-        <f t="shared" ref="M47:N47" si="67">(M29-M28)/M28</f>
+      <c r="M47" s="13">
+        <f t="shared" ref="M47:N47" si="68">(M29-M28)/M28</f>
         <v>0.55067567567567566</v>
       </c>
-      <c r="N47" s="14">
-        <f t="shared" si="67"/>
+      <c r="N47" s="13">
+        <f t="shared" si="68"/>
         <v>1.8412698412698412</v>
       </c>
-      <c r="O47" s="14">
-        <f t="shared" ref="O47:Q47" si="68">(O29-O28)/O28</f>
+      <c r="O47" s="13">
+        <f t="shared" ref="O47:Q47" si="69">(O29-O28)/O28</f>
         <v>0.41037735849056606</v>
       </c>
-      <c r="P47" s="14">
-        <f t="shared" si="68"/>
+      <c r="P47" s="13">
+        <f t="shared" si="69"/>
         <v>0.27586206896551724</v>
       </c>
-      <c r="Q47" s="14">
-        <f t="shared" si="68"/>
+      <c r="Q47" s="13">
+        <f t="shared" si="69"/>
         <v>0.23320312500000001</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="2">
         <v>2025</v>
       </c>
-      <c r="C48" s="42">
-        <f t="shared" si="56"/>
+      <c r="C48" s="38">
+        <f t="shared" si="57"/>
         <v>0.20810880164228893</v>
       </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42">
-        <f t="shared" si="56"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38">
+        <f t="shared" si="57"/>
         <v>0.21875</v>
       </c>
-      <c r="F48" s="42">
-        <f t="shared" si="56"/>
+      <c r="F48" s="38">
+        <f t="shared" si="57"/>
         <v>0.88222222222222224</v>
       </c>
-      <c r="G48" s="42">
-        <f t="shared" si="56"/>
+      <c r="G48" s="38">
+        <f t="shared" si="57"/>
         <v>0.15277777777777779</v>
       </c>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42">
-        <f t="shared" ref="I48:J48" si="69">(I30-I29)/I29</f>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38">
+        <f t="shared" ref="I48:J48" si="70">(I30-I29)/I29</f>
         <v>0.48443223443223443</v>
       </c>
-      <c r="J48" s="42">
-        <f t="shared" si="69"/>
+      <c r="J48" s="38">
+        <f t="shared" si="70"/>
         <v>0.3656203288490284</v>
       </c>
-      <c r="K48" s="42">
-        <f t="shared" ref="K48:L48" si="70">(K30-K29)/K29</f>
+      <c r="K48" s="38">
+        <f t="shared" ref="K48" si="71">(K30-K29)/K29</f>
         <v>0.43613793103448278</v>
       </c>
-      <c r="L48" s="41"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15">
-        <f t="shared" ref="O48:Q48" si="71">(P30-P29)/P29</f>
+      <c r="L48" s="37"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14">
+        <f t="shared" ref="P48" si="72">(P30-P29)/P29</f>
         <v>6.3063063063063057E-2</v>
       </c>
-      <c r="Q48" s="15"/>
+      <c r="Q48" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3453,38 +3441,38 @@
   <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.0625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="10.0625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B3" s="63"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="64" t="s">
+    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="59"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="58" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="1"/>
@@ -3498,24 +3486,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="65">
+      <c r="C4" s="69"/>
+      <c r="D4" s="61">
         <v>7504</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="52">
         <v>42382</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="52">
         <v>5094</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="52">
         <v>1117</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="53">
         <v>13443</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -3533,24 +3521,24 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="66">
+      <c r="C5" s="69"/>
+      <c r="D5" s="62">
         <v>25.66</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="41">
         <v>42.65</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="41">
         <v>15.6</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="54">
         <v>6.48</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -3566,24 +3554,24 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="66">
+      <c r="C6" s="69"/>
+      <c r="D6" s="62">
         <v>19.649999999999999</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="41">
         <v>29.62</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="41">
         <v>14.73</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="58"/>
+      <c r="H6" s="54"/>
       <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
@@ -3600,54 +3588,54 @@
         <v>0.77358490566037741</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="66">
+      <c r="C7" s="69"/>
+      <c r="D7" s="62">
         <v>5.91</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="41">
         <v>9.33</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="41">
         <v>5.67</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="41">
         <v>3.55</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="54">
         <v>1.44</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="67">
+      <c r="C8" s="70"/>
+      <c r="D8" s="63">
         <v>25.75</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="55">
         <v>26.54</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="55">
         <v>44.73</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60">
+      <c r="G8" s="55"/>
+      <c r="H8" s="56">
         <v>24.31</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B9" s="37" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="26">
         <v>2020</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <v>300</v>
       </c>
       <c r="E9" s="8">
@@ -3656,19 +3644,19 @@
       <c r="F9" s="8">
         <v>122</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="8">
         <v>120</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="45">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B10" s="38"/>
-      <c r="C10" s="31">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="34"/>
+      <c r="C10" s="27">
         <v>2021</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>511</v>
       </c>
       <c r="E10" s="2">
@@ -3677,19 +3665,19 @@
       <c r="F10" s="2">
         <v>184</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="2">
         <v>187</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="20">
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B11" s="38"/>
-      <c r="C11" s="31">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="34"/>
+      <c r="C11" s="27">
         <v>2022</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>815</v>
       </c>
       <c r="E11" s="2">
@@ -3698,19 +3686,19 @@
       <c r="F11" s="2">
         <v>311</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="2">
         <v>300</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="20">
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B12" s="38"/>
-      <c r="C12" s="31">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="34"/>
+      <c r="C12" s="27">
         <v>2023</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>1156</v>
       </c>
       <c r="E12" s="2">
@@ -3719,19 +3707,19 @@
       <c r="F12" s="2">
         <v>425</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="2">
         <v>344</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="20">
         <v>492</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B13" s="38"/>
-      <c r="C13" s="31">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="34"/>
+      <c r="C13" s="27">
         <v>2024</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>1153</v>
       </c>
       <c r="E13" s="2">
@@ -3740,19 +3728,19 @@
       <c r="F13" s="2">
         <v>582</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="2">
         <v>330</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="20">
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B14" s="39"/>
-      <c r="C14" s="32">
+    <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="35"/>
+      <c r="C14" s="28">
         <v>2025</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="23">
         <v>1410</v>
       </c>
       <c r="E14" s="11">
@@ -3762,16 +3750,16 @@
         <v>676</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="55"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B15" s="37" t="s">
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="29">
         <v>2020</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="21">
         <v>-86</v>
       </c>
       <c r="E15" s="8">
@@ -3780,19 +3768,19 @@
       <c r="F15" s="8">
         <v>34</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="8">
         <v>-6</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="20">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.6">
-      <c r="B16" s="38"/>
-      <c r="C16" s="31">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="27">
         <v>2021</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>104</v>
       </c>
       <c r="E16" s="2">
@@ -3801,19 +3789,19 @@
       <c r="F16" s="2">
         <v>54</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="2">
         <v>6</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="20">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B17" s="38"/>
-      <c r="C17" s="31">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="34"/>
+      <c r="C17" s="27">
         <v>2022</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="22">
         <v>268</v>
       </c>
       <c r="E17" s="2">
@@ -3822,19 +3810,19 @@
       <c r="F17" s="2">
         <v>129</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="2">
         <v>25</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="20">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B18" s="38"/>
-      <c r="C18" s="31">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="34"/>
+      <c r="C18" s="27">
         <v>2023</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="22">
         <v>460</v>
       </c>
       <c r="E18" s="2">
@@ -3843,19 +3831,19 @@
       <c r="F18" s="2">
         <v>223</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="2">
         <v>45</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="20">
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B19" s="38"/>
-      <c r="C19" s="31">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="34"/>
+      <c r="C19" s="27">
         <v>2024</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="22">
         <v>348</v>
       </c>
       <c r="E19" s="2">
@@ -3864,19 +3852,19 @@
       <c r="F19" s="2">
         <v>361</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="2">
         <v>-2</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B20" s="39"/>
-      <c r="C20" s="75">
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="35"/>
+      <c r="C20" s="71">
         <v>2025</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="23">
         <v>475</v>
       </c>
       <c r="E20" s="11">
@@ -3886,433 +3874,433 @@
         <v>388</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B21" s="37" t="s">
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="26">
         <v>2020</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="64">
         <f>D15/D9</f>
         <v>-0.28666666666666668</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <f>E15/E9</f>
         <v>0.53071895424836601</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <f>F15/F9</f>
         <v>0.27868852459016391</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="44">
         <f>G15/G9</f>
         <v>-0.05</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <f>H15/H9</f>
         <v>0.35436893203883496</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B22" s="38"/>
-      <c r="C22" s="31">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="34"/>
+      <c r="C22" s="27">
         <v>2021</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="24">
         <f t="shared" ref="D22:E26" si="0">D16/D10</f>
         <v>0.20352250489236789</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
         <v>0.51391650099403574</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <f t="shared" ref="F22:G22" si="1">F16/F10</f>
         <v>0.29347826086956524</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <f t="shared" si="1"/>
         <v>3.2085561497326207E-2</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <f t="shared" ref="H22" si="2">H16/H10</f>
         <v>0.46648044692737428</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B23" s="38"/>
-      <c r="C23" s="31">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="34"/>
+      <c r="C23" s="27">
         <v>2022</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="24">
         <f t="shared" si="0"/>
         <v>0.32883435582822085</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>0.48589562764456984</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f t="shared" ref="F23:G23" si="3">F17/F11</f>
         <v>0.41479099678456594</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <f t="shared" ref="H23" si="4">H17/H11</f>
         <v>0.43612334801762115</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B24" s="38"/>
-      <c r="C24" s="31">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="34"/>
+      <c r="C24" s="27">
         <v>2023</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="24">
         <f t="shared" si="0"/>
         <v>0.39792387543252594</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
         <v>0.49750138811771238</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <f t="shared" ref="F24:G24" si="5">F18/F12</f>
         <v>0.52470588235294113</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <f t="shared" si="5"/>
         <v>0.1308139534883721</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="17">
         <f t="shared" ref="H24" si="6">H18/H12</f>
         <v>0.3983739837398374</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B25" s="38"/>
-      <c r="C25" s="31">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="34"/>
+      <c r="C25" s="27">
         <v>2024</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="24">
         <f t="shared" si="0"/>
         <v>0.3018213356461405</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <f t="shared" si="0"/>
         <v>0.50391107451626183</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <f t="shared" ref="F25:G25" si="7">F19/F13</f>
         <v>0.6202749140893471</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="43">
         <f t="shared" si="7"/>
         <v>-6.0606060606060606E-3</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="17">
         <f t="shared" ref="H25" si="8">H19/H13</f>
         <v>0.28607594936708863</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B26" s="39"/>
-      <c r="C26" s="32">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="35"/>
+      <c r="C26" s="28">
         <v>2025</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="25">
         <f t="shared" si="0"/>
         <v>0.33687943262411346</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <f t="shared" si="0"/>
         <v>0.49656357388316152</v>
       </c>
-      <c r="F26" s="19">
-        <f t="shared" ref="F26:H26" si="9">F20/F14</f>
+      <c r="F26" s="18">
+        <f t="shared" ref="F26" si="9">F20/F14</f>
         <v>0.57396449704142016</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B27" s="37" t="s">
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="72">
         <v>2020</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B28" s="38"/>
-      <c r="C28" s="31">
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="34"/>
+      <c r="C28" s="27">
         <v>2021</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="65">
         <f>(D10-D9)/D9</f>
         <v>0.70333333333333337</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="38">
         <f>(E10-E9)/E9</f>
         <v>0.31503267973856208</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="38">
         <f>(F10-F9)/F9</f>
         <v>0.50819672131147542</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="38">
         <f>(G10-G9)/G9</f>
         <v>0.55833333333333335</v>
       </c>
-      <c r="H28" s="51">
+      <c r="H28" s="47">
         <f>(H10-H9)/H9</f>
         <v>0.73786407766990292</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B29" s="38"/>
-      <c r="C29" s="31">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="34"/>
+      <c r="C29" s="27">
         <v>2022</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="65">
         <f t="shared" ref="D29:E32" si="10">(D11-D10)/D10</f>
         <v>0.59491193737769077</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="38">
         <f t="shared" si="10"/>
         <v>0.40954274353876741</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="38">
         <f t="shared" ref="F29:G29" si="11">(F11-F10)/F10</f>
         <v>0.69021739130434778</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="38">
         <f t="shared" si="11"/>
         <v>0.60427807486631013</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="47">
         <f t="shared" ref="H29" si="12">(H11-H10)/H10</f>
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B30" s="38"/>
-      <c r="C30" s="31">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="34"/>
+      <c r="C30" s="27">
         <v>2023</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="65">
         <f t="shared" si="10"/>
         <v>0.41840490797546015</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="38">
         <f t="shared" si="10"/>
         <v>0.27009873060648804</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="38">
         <f t="shared" ref="F30:G30" si="13">(F12-F11)/F11</f>
         <v>0.36655948553054662</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="38">
         <f t="shared" si="13"/>
         <v>0.14666666666666667</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="47">
         <f t="shared" ref="H30" si="14">(H12-H11)/H11</f>
         <v>8.3700440528634359E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B31" s="38"/>
-      <c r="C31" s="31">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="34"/>
+      <c r="C31" s="27">
         <v>2024</v>
       </c>
-      <c r="D31" s="70">
+      <c r="D31" s="66">
         <f t="shared" si="10"/>
         <v>-2.5951557093425604E-3</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="38">
         <f t="shared" si="10"/>
         <v>0.34869516935036093</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="38">
         <f t="shared" ref="F31:G31" si="15">(F13-F12)/F12</f>
         <v>0.36941176470588233</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="42">
         <f t="shared" si="15"/>
         <v>-4.0697674418604654E-2</v>
       </c>
-      <c r="H31" s="52">
+      <c r="H31" s="48">
         <f t="shared" ref="H31" si="16">(H13-H12)/H12</f>
         <v>-0.19715447154471544</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B32" s="39"/>
-      <c r="C32" s="75">
+    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="35"/>
+      <c r="C32" s="71">
         <v>2025</v>
       </c>
-      <c r="D32" s="71">
+      <c r="D32" s="67">
         <f t="shared" si="10"/>
         <v>0.22289679098005205</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="49">
         <f t="shared" si="10"/>
         <v>0.43762865376698229</v>
       </c>
-      <c r="F32" s="53">
-        <f t="shared" ref="F32:H32" si="17">(F14-F13)/F13</f>
+      <c r="F32" s="49">
+        <f t="shared" ref="F32" si="17">(F14-F13)/F13</f>
         <v>0.16151202749140894</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B33" s="37" t="s">
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="76">
         <v>2020</v>
       </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="79"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B34" s="38"/>
-      <c r="C34" s="31">
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="34"/>
+      <c r="C34" s="27">
         <v>2021</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="66">
         <f>(D16-D15)/D15</f>
         <v>-2.2093023255813953</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="38">
         <f>(E16-E15)/E15</f>
         <v>0.27339901477832512</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="38">
         <f>(F16-F15)/F15</f>
         <v>0.58823529411764708</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="42">
         <f>(G16-G15)/G15</f>
         <v>-2</v>
       </c>
-      <c r="H34" s="51">
+      <c r="H34" s="47">
         <f>(H16-H15)/H15</f>
         <v>1.2876712328767124</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B35" s="38"/>
-      <c r="C35" s="31">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="34"/>
+      <c r="C35" s="27">
         <v>2022</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="65">
         <f t="shared" ref="D35:E38" si="18">(D17-D16)/D16</f>
         <v>1.5769230769230769</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="38">
         <f t="shared" si="18"/>
         <v>0.33268858800773693</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="38">
         <f t="shared" ref="F35:G35" si="19">(F17-F16)/F16</f>
         <v>1.3888888888888888</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="38">
         <f t="shared" si="19"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="H35" s="51">
+      <c r="H35" s="47">
         <f t="shared" ref="H35" si="20">(H17-H16)/H16</f>
         <v>0.18562874251497005</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B36" s="38"/>
-      <c r="C36" s="31">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="34"/>
+      <c r="C36" s="27">
         <v>2023</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="65">
         <f t="shared" si="18"/>
         <v>0.71641791044776115</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="38">
         <f t="shared" si="18"/>
         <v>0.30043541364296084</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="38">
         <f t="shared" ref="F36:G36" si="21">(F18-F17)/F17</f>
         <v>0.72868217054263562</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="38">
         <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="H36" s="51">
+      <c r="H36" s="47">
         <f t="shared" ref="H36" si="22">(H18-H17)/H17</f>
         <v>-1.0101010101010102E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B37" s="38"/>
-      <c r="C37" s="31">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="34"/>
+      <c r="C37" s="27">
         <v>2024</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="66">
         <f t="shared" si="18"/>
         <v>-0.24347826086956523</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="38">
         <f t="shared" si="18"/>
         <v>0.36607142857142855</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="38">
         <f t="shared" ref="F37:G37" si="23">(F19-F18)/F18</f>
         <v>0.6188340807174888</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="42">
         <f t="shared" si="23"/>
         <v>-1.0444444444444445</v>
       </c>
-      <c r="H37" s="52">
+      <c r="H37" s="48">
         <f t="shared" ref="H37" si="24">(H19-H18)/H18</f>
         <v>-0.42346938775510207</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B38" s="39"/>
-      <c r="C38" s="32">
+    <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="35"/>
+      <c r="C38" s="28">
         <v>2025</v>
       </c>
-      <c r="D38" s="71">
+      <c r="D38" s="67">
         <f t="shared" si="18"/>
         <v>0.36494252873563221</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="49">
         <f t="shared" si="18"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="F38" s="53">
-        <f t="shared" ref="F38:H38" si="25">(F20-F19)/F19</f>
+      <c r="F38" s="49">
+        <f t="shared" ref="F38" si="25">(F20-F19)/F19</f>
         <v>7.4792243767313013E-2</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/전선.xlsx
+++ b/전선.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_project\tele_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_project\tele_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A96BE-2A7D-4558-9BA9-9C93B9D76E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{1759234D-30EE-461E-8322-73F2168A7125}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="전선" sheetId="1" r:id="rId1"/>
@@ -22,8 +21,9 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="124">
   <si>
     <t>LS Electric</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -467,11 +467,15 @@
   <si>
     <t>한국비엔씨</t>
   </si>
+  <si>
+    <t>2025.1Q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
@@ -1863,6 +1867,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1870,7 +1875,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2345,6 +2349,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2352,7 +2357,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2926,6 +2930,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2933,7 +2938,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3598,6 +3602,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3605,7 +3610,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4155,6 +4159,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4162,7 +4167,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4830,6 +4834,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4837,7 +4842,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5440,6 +5444,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5447,7 +5452,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6114,6 +6118,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6121,7 +6126,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6743,6 +6747,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6750,7 +6755,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7372,6 +7376,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7379,7 +7384,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8001,6 +8005,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8008,7 +8013,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14742,15 +14746,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C35B011-58F1-4997-B167-CE96AD062AC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="K14" sqref="C14:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
@@ -14762,7 +14766,7 @@
     <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -14770,7 +14774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -14806,7 +14810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
       <c r="B5" s="2">
         <v>2020</v>
       </c>
@@ -14832,7 +14836,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="B6" s="2">
         <v>2021</v>
       </c>
@@ -14873,7 +14877,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="B7" s="2">
         <v>2022</v>
       </c>
@@ -14914,7 +14918,7 @@
         <v>1.8492063492063493</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="B8" s="2">
         <v>2023</v>
       </c>
@@ -14955,7 +14959,7 @@
         <v>0.14206128133704735</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="B9" s="2">
         <v>2024</v>
       </c>
@@ -14998,7 +15002,7 @@
         <v>5.4463414634146341</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -15012,12 +15016,12 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="N11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="L12" t="s">
         <v>31</v>
       </c>
@@ -15025,7 +15029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -15051,7 +15055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A14" s="33"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -15100,7 +15104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" s="34" t="s">
         <v>13</v>
       </c>
@@ -15151,7 +15155,7 @@
         <v>1343084</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A16" s="34" t="s">
         <v>14</v>
       </c>
@@ -15202,7 +15206,7 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="35" t="s">
         <v>16</v>
       </c>
@@ -15253,7 +15257,7 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="35" t="s">
         <v>15</v>
       </c>
@@ -15304,7 +15308,7 @@
         <v>26.73</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -15357,7 +15361,7 @@
         <v>8599</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A20" s="9"/>
       <c r="B20" s="2">
         <v>2021</v>
@@ -15408,7 +15412,7 @@
         <v>10876</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A21" s="9"/>
       <c r="B21" s="2">
         <v>2022</v>
@@ -15459,7 +15463,7 @@
         <v>12623</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A22" s="9"/>
       <c r="B22" s="2">
         <v>2023</v>
@@ -15510,7 +15514,7 @@
         <v>12555</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A23" s="9"/>
       <c r="B23" s="2">
         <v>2024</v>
@@ -15561,7 +15565,7 @@
         <v>15223</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="10"/>
       <c r="B24" s="2">
         <v>2025</v>
@@ -15598,7 +15602,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -15651,7 +15655,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A26" s="9"/>
       <c r="B26" s="2">
         <v>2021</v>
@@ -15702,7 +15706,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>2022</v>
@@ -15753,7 +15757,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A28" s="9"/>
       <c r="B28" s="2">
         <v>2023</v>
@@ -15804,7 +15808,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A29" s="9"/>
       <c r="B29" s="2">
         <v>2024</v>
@@ -15855,7 +15859,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="10"/>
       <c r="B30" s="2">
         <v>2025</v>
@@ -15892,7 +15896,7 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A31" s="7" t="s">
         <v>9</v>
       </c>
@@ -15960,7 +15964,7 @@
         <v>0.19048726596115828</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A32" s="9"/>
       <c r="B32" s="2">
         <v>2021</v>
@@ -16026,7 +16030,7 @@
         <v>0.19354542111070247</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A33" s="9"/>
       <c r="B33" s="2">
         <v>2022</v>
@@ -16092,7 +16096,7 @@
         <v>0.20486413689297314</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A34" s="9"/>
       <c r="B34" s="2">
         <v>2023</v>
@@ -16158,7 +16162,7 @@
         <v>0.20390282755874153</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A35" s="9"/>
       <c r="B35" s="2">
         <v>2024</v>
@@ -16224,7 +16228,7 @@
         <v>0.2073835643434277</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="10"/>
       <c r="B36" s="2">
         <v>2025</v>
@@ -16269,7 +16273,7 @@
       </c>
       <c r="Q36" s="18"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
@@ -16286,7 +16290,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A38" s="9"/>
       <c r="B38" s="2">
         <v>2021</v>
@@ -16352,7 +16356,7 @@
         <v>0.26479823235259914</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A39" s="9"/>
       <c r="B39" s="2">
         <v>2022</v>
@@ -16418,7 +16422,7 @@
         <v>0.1606289076866495</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A40" s="9"/>
       <c r="B40" s="2">
         <v>2023</v>
@@ -16484,7 +16488,7 @@
         <v>-5.3869919987324724E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A41" s="9"/>
       <c r="B41" s="2">
         <v>2024</v>
@@ -16550,7 +16554,7 @@
         <v>0.21250497809637595</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="10"/>
       <c r="B42" s="2">
         <v>2025</v>
@@ -16595,7 +16599,7 @@
       </c>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A43" s="7" t="s">
         <v>12</v>
       </c>
@@ -16612,7 +16616,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A44" s="9"/>
       <c r="B44" s="2">
         <v>2021</v>
@@ -16678,7 +16682,7 @@
         <v>0.28510378510378509</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A45" s="9"/>
       <c r="B45" s="2">
         <v>2022</v>
@@ -16744,7 +16748,7 @@
         <v>0.22850356294536817</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A46" s="9"/>
       <c r="B46" s="2">
         <v>2023</v>
@@ -16810,7 +16814,7 @@
         <v>-1.0054137664346482E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A47" s="9"/>
       <c r="B47" s="2">
         <v>2024</v>
@@ -16876,7 +16880,7 @@
         <v>0.23320312500000001</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A48" s="10"/>
       <c r="B48" s="2">
         <v>2025</v>
@@ -16928,17 +16932,201 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>1418.9</v>
+      </c>
+      <c r="D2">
+        <v>1384</v>
+      </c>
+      <c r="E2">
+        <v>1420</v>
+      </c>
+      <c r="F2">
+        <v>1525.1</v>
+      </c>
+      <c r="G2">
+        <v>1431.9</v>
+      </c>
+      <c r="H2">
+        <v>1509</v>
+      </c>
+      <c r="I2">
+        <v>1664</v>
+      </c>
+      <c r="J2">
+        <v>1219.0999999999999</v>
+      </c>
+      <c r="K2">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>52.3</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>104</v>
+      </c>
+      <c r="F3">
+        <v>45.7</v>
+      </c>
+      <c r="G3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H3">
+        <v>166</v>
+      </c>
+      <c r="I3">
+        <v>199</v>
+      </c>
+      <c r="J3">
+        <v>152.9</v>
+      </c>
+      <c r="K3">
+        <v>214</v>
+      </c>
+      <c r="M3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>3.7</v>
+      </c>
+      <c r="D4">
+        <v>3.3</v>
+      </c>
+      <c r="E4">
+        <v>7.3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5.2</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>12.5</v>
+      </c>
+      <c r="K4">
+        <f>K3/K2</f>
+        <v>0.13570069752694991</v>
+      </c>
+      <c r="M4">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="M5">
+        <f>M4/M3</f>
+        <v>5.6101231190150482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="K7" s="80">
+        <f>(K2-G2)/G2</f>
+        <v>0.10133389203156638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="K8" s="80">
+        <f>(K3-G3)/G3</f>
+        <v>1.8495339547270309</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263CF6D8-CEC5-4164-BE33-849FB9ABB9C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -16997,7 +17185,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -17056,7 +17244,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -17115,7 +17303,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -17175,7 +17363,7 @@
         <v>8.4593023255813957</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -17223,7 +17411,7 @@
         <v>-0.63929754294076524</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -17280,7 +17468,7 @@
         <v>-24.093088940539591</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -17328,7 +17516,7 @@
         <v>-6.8700661403883059</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -17385,7 +17573,7 @@
         <v>-27.16502586350742</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -17444,7 +17632,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -17503,7 +17691,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -17562,7 +17750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -17622,7 +17810,7 @@
         <v>6.756756756756757</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -17670,7 +17858,7 @@
         <v>224.56140350877192</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -17727,7 +17915,7 @@
         <v>8.7702106810387086</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -17775,7 +17963,7 @@
         <v>205.63380281690141</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -17832,7 +18020,7 @@
         <v>40.186915887850475</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -17891,7 +18079,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -17950,7 +18138,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -18009,7 +18197,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -18069,7 +18257,7 @@
         <v>6.7017082785808144</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -18117,7 +18305,7 @@
         <v>26.910889988326193</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -18174,7 +18362,7 @@
         <v>-2.0634035433915279</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -18222,7 +18410,7 @@
         <v>57.731958762886592</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -18287,14 +18475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24479607-4368-40EE-B67C-8B31C136F36D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="3"/>
@@ -18302,12 +18490,12 @@
     <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="H2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B3" s="59"/>
       <c r="C3" s="68"/>
       <c r="D3" s="60" t="s">
@@ -18336,7 +18524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B4" s="33" t="s">
         <v>13</v>
       </c>
@@ -18371,7 +18559,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
@@ -18404,7 +18592,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B6" s="34" t="s">
         <v>37</v>
       </c>
@@ -18438,7 +18626,7 @@
         <v>0.77358490566037741</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B7" s="34" t="s">
         <v>16</v>
       </c>
@@ -18459,7 +18647,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B8" s="35" t="s">
         <v>15</v>
       </c>
@@ -18478,7 +18666,7 @@
         <v>24.31</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
@@ -18501,7 +18689,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B10" s="34"/>
       <c r="C10" s="27">
         <v>2021</v>
@@ -18522,7 +18710,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B11" s="34"/>
       <c r="C11" s="27">
         <v>2022</v>
@@ -18543,7 +18731,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B12" s="34"/>
       <c r="C12" s="27">
         <v>2023</v>
@@ -18564,7 +18752,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B13" s="34"/>
       <c r="C13" s="27">
         <v>2024</v>
@@ -18585,7 +18773,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B14" s="35"/>
       <c r="C14" s="28">
         <v>2025</v>
@@ -18602,7 +18790,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="51"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
@@ -18625,7 +18813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B16" s="34"/>
       <c r="C16" s="27">
         <v>2021</v>
@@ -18646,7 +18834,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B17" s="34"/>
       <c r="C17" s="27">
         <v>2022</v>
@@ -18667,7 +18855,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B18" s="34"/>
       <c r="C18" s="27">
         <v>2023</v>
@@ -18688,7 +18876,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B19" s="34"/>
       <c r="C19" s="27">
         <v>2024</v>
@@ -18709,7 +18897,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B20" s="35"/>
       <c r="C20" s="71">
         <v>2025</v>
@@ -18726,7 +18914,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="46"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B21" s="33" t="s">
         <v>9</v>
       </c>
@@ -18754,7 +18942,7 @@
         <v>0.35436893203883496</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B22" s="34"/>
       <c r="C22" s="27">
         <v>2021</v>
@@ -18780,7 +18968,7 @@
         <v>0.46648044692737428</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B23" s="34"/>
       <c r="C23" s="27">
         <v>2022</v>
@@ -18806,7 +18994,7 @@
         <v>0.43612334801762115</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B24" s="34"/>
       <c r="C24" s="27">
         <v>2023</v>
@@ -18832,7 +19020,7 @@
         <v>0.3983739837398374</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B25" s="34"/>
       <c r="C25" s="27">
         <v>2024</v>
@@ -18858,7 +19046,7 @@
         <v>0.28607594936708863</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B26" s="35"/>
       <c r="C26" s="28">
         <v>2025</v>
@@ -18878,7 +19066,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B27" s="33" t="s">
         <v>11</v>
       </c>
@@ -18891,7 +19079,7 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B28" s="34"/>
       <c r="C28" s="27">
         <v>2021</v>
@@ -18917,7 +19105,7 @@
         <v>0.73786407766990292</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B29" s="34"/>
       <c r="C29" s="27">
         <v>2022</v>
@@ -18943,7 +19131,7 @@
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B30" s="34"/>
       <c r="C30" s="27">
         <v>2023</v>
@@ -18969,7 +19157,7 @@
         <v>8.3700440528634359E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B31" s="34"/>
       <c r="C31" s="27">
         <v>2024</v>
@@ -18995,7 +19183,7 @@
         <v>-0.19715447154471544</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B32" s="35"/>
       <c r="C32" s="71">
         <v>2025</v>
@@ -19015,7 +19203,7 @@
       <c r="G32" s="49"/>
       <c r="H32" s="50"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B33" s="33" t="s">
         <v>12</v>
       </c>
@@ -19028,7 +19216,7 @@
       <c r="G33" s="74"/>
       <c r="H33" s="75"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B34" s="34"/>
       <c r="C34" s="27">
         <v>2021</v>
@@ -19054,7 +19242,7 @@
         <v>1.2876712328767124</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B35" s="34"/>
       <c r="C35" s="27">
         <v>2022</v>
@@ -19080,7 +19268,7 @@
         <v>0.18562874251497005</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B36" s="34"/>
       <c r="C36" s="27">
         <v>2023</v>
@@ -19106,7 +19294,7 @@
         <v>-1.0101010101010102E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B37" s="34"/>
       <c r="C37" s="27">
         <v>2024</v>
@@ -19132,7 +19320,7 @@
         <v>-0.42346938775510207</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B38" s="35"/>
       <c r="C38" s="28">
         <v>2025</v>
@@ -19159,74 +19347,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906B155C-B41A-41DB-BC39-E8E8BF4DEFB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.6">
       <c r="C14" t="s">
         <v>61</v>
       </c>
@@ -19238,16 +19426,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D680BA6E-A449-455E-8C2C-C60EB09B7605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -19303,7 +19491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -19359,7 +19547,7 @@
         <v>1471.1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -19415,7 +19603,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -19471,7 +19659,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -19515,7 +19703,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -19568,7 +19756,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -19612,7 +19800,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -19665,7 +19853,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -19721,7 +19909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -19777,7 +19965,7 @@
         <v>956.6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -19833,7 +20021,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -19889,7 +20077,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -19933,7 +20121,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -19986,7 +20174,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -20030,7 +20218,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -20083,7 +20271,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -20139,7 +20327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -20195,7 +20383,7 @@
         <v>362.1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -20251,7 +20439,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -20307,7 +20495,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -20351,7 +20539,7 @@
         <v>-9.3000000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -20404,7 +20592,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -20448,7 +20636,7 @@
         <v>148.9</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -20498,7 +20686,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -20554,7 +20742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -20610,7 +20798,7 @@
         <v>493.3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -20666,7 +20854,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -20722,7 +20910,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -20766,7 +20954,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -20819,7 +21007,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -20863,7 +21051,7 @@
         <v>-43.6</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -20924,20 +21112,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089F0390-3CD3-4069-B68C-890C38AAAFD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.6">
       <c r="F1" t="s">
         <v>62</v>
       </c>
@@ -20996,7 +21184,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.6">
       <c r="F2" t="s">
         <v>103</v>
       </c>
@@ -21055,7 +21243,7 @@
         <v>27386</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.6">
       <c r="F3" t="s">
         <v>103</v>
       </c>
@@ -21114,7 +21302,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.6">
       <c r="F4" t="s">
         <v>103</v>
       </c>
@@ -21173,7 +21361,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.6">
       <c r="F5" t="s">
         <v>103</v>
       </c>
@@ -21220,7 +21408,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.6">
       <c r="F6" t="s">
         <v>103</v>
       </c>
@@ -21276,7 +21464,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.6">
       <c r="F7" t="s">
         <v>103</v>
       </c>
@@ -21323,7 +21511,7 @@
         <v>142.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.6">
       <c r="F8" t="s">
         <v>103</v>
       </c>
@@ -21379,7 +21567,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.6">
       <c r="H13" s="79">
         <f>H2</f>
         <v>23719.5</v>
@@ -21449,7 +21637,7 @@
         <v>27386</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A14" s="81" t="s">
         <v>13</v>
       </c>
@@ -21520,7 +21708,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A15" s="3">
         <v>7744</v>
       </c>
@@ -21594,7 +21782,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A16" s="3">
         <v>6082</v>
       </c>
@@ -21665,7 +21853,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A17" s="3">
         <v>15681</v>
       </c>
@@ -21734,7 +21922,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A18" s="3">
         <v>6412</v>
       </c>
@@ -21805,7 +21993,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A19" s="3">
         <v>7482</v>
       </c>
@@ -21876,7 +22064,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A20" s="3">
         <v>10998</v>
       </c>
@@ -21947,7 +22135,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A21" s="3">
         <v>29584</v>
       </c>
@@ -22018,7 +22206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A22" s="3">
         <v>93965</v>
       </c>
@@ -22089,7 +22277,7 @@
         <v>27386</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.6">
       <c r="H26" s="79">
         <f>H3</f>
         <v>3314.8</v>
@@ -22159,7 +22347,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.6">
       <c r="G27" t="s">
         <v>63</v>
       </c>
@@ -22215,7 +22403,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.6">
       <c r="E28" s="80">
         <v>0.15104647637070157</v>
       </c>
@@ -22277,7 +22465,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.6">
       <c r="E29" s="80">
         <v>0.23662469439241868</v>
       </c>
@@ -22336,7 +22524,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.6">
       <c r="E30" s="80">
         <v>0.13713851648054134</v>
       </c>
@@ -22395,7 +22583,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.6">
       <c r="E31" s="80">
         <v>0.18999094916064521</v>
       </c>
@@ -22454,7 +22642,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.6">
       <c r="E32" s="80">
         <v>6.4746609952486656E-2</v>
       </c>
@@ -22513,7 +22701,7 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="33" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E33" s="80">
         <v>0.3384937774572257</v>
       </c>
@@ -22572,7 +22760,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E34" s="80">
         <v>0.12452368492310838</v>
       </c>
@@ -22631,7 +22819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E35" s="80">
         <v>0.1026545786820576</v>
       </c>
@@ -22690,7 +22878,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="39" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:24" x14ac:dyDescent="0.6">
       <c r="G39" t="s">
         <v>63</v>
       </c>
@@ -22746,7 +22934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E40" s="82">
         <f>AVERAGE(H40:X40)</f>
         <v>0.15104647637070157</v>
@@ -22826,7 +23014,7 @@
         <v>0.20552677029360966</v>
       </c>
     </row>
-    <row r="41" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E41" s="82">
         <f t="shared" ref="E41:E47" si="3">AVERAGE(H41:X41)</f>
         <v>0.23143878082948377</v>
@@ -22903,7 +23091,7 @@
         <v>0.14846416382252559</v>
       </c>
     </row>
-    <row r="42" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E42" s="82">
         <f t="shared" si="3"/>
         <v>0.13713851648054134</v>
@@ -22980,7 +23168,7 @@
         <v>0.15865254007063298</v>
       </c>
     </row>
-    <row r="43" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E43" s="82">
         <f t="shared" si="3"/>
         <v>0.18999094916064521</v>
@@ -23057,7 +23245,7 @@
         <v>0.23128243143068941</v>
       </c>
     </row>
-    <row r="44" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E44" s="82">
         <f t="shared" si="3"/>
         <v>6.4746609952486656E-2</v>
@@ -23134,7 +23322,7 @@
         <v>-2.8797027403622853E-2</v>
       </c>
     </row>
-    <row r="45" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E45" s="82">
         <f t="shared" si="3"/>
         <v>0.3384937774572257</v>
@@ -23211,7 +23399,7 @@
         <v>0.2988505747126437</v>
       </c>
     </row>
-    <row r="46" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E46" s="82" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -23288,7 +23476,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:24" x14ac:dyDescent="0.6">
       <c r="E47" s="82">
         <f t="shared" si="3"/>
         <v>0.1026545786820576</v>
@@ -23365,7 +23553,7 @@
         <v>7.3212590374643977E-2</v>
       </c>
     </row>
-    <row r="50" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:24" x14ac:dyDescent="0.6">
       <c r="F50" t="s">
         <v>11</v>
       </c>
@@ -23424,7 +23612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G51" t="s">
         <v>94</v>
       </c>
@@ -23485,7 +23673,7 @@
         <v>0.38616231745271729</v>
       </c>
     </row>
-    <row r="52" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G52" t="s">
         <v>95</v>
       </c>
@@ -23546,7 +23734,7 @@
         <v>1.4718614718614719E-2</v>
       </c>
     </row>
-    <row r="53" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G53" t="s">
         <v>98</v>
       </c>
@@ -23607,7 +23795,7 @@
         <v>0.10543860175981258</v>
       </c>
     </row>
-    <row r="54" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G54" t="s">
         <v>99</v>
       </c>
@@ -23668,7 +23856,7 @@
         <v>0.14302660566005757</v>
       </c>
     </row>
-    <row r="55" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G55" t="s">
         <v>100</v>
       </c>
@@ -23729,7 +23917,7 @@
         <v>2.4677562043116741E-3</v>
       </c>
     </row>
-    <row r="56" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G56" t="s">
         <v>101</v>
       </c>
@@ -23790,7 +23978,7 @@
         <v>0.32756866734486279</v>
       </c>
     </row>
-    <row r="57" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G57" t="s">
         <v>102</v>
       </c>
@@ -23848,7 +24036,7 @@
       </c>
       <c r="X57" s="80"/>
     </row>
-    <row r="58" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G58" t="s">
         <v>103</v>
       </c>
@@ -23909,7 +24097,7 @@
         <v>4.355844818979604E-2</v>
       </c>
     </row>
-    <row r="61" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:24" x14ac:dyDescent="0.6">
       <c r="F61" t="s">
         <v>105</v>
       </c>
@@ -23968,7 +24156,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G62" t="s">
         <v>94</v>
       </c>
@@ -24029,7 +24217,7 @@
         <v>0.61465400271370418</v>
       </c>
     </row>
-    <row r="63" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G63" t="s">
         <v>95</v>
       </c>
@@ -24090,7 +24278,7 @@
         <v>0.3282442748091603</v>
       </c>
     </row>
-    <row r="64" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:24" x14ac:dyDescent="0.6">
       <c r="G64" t="s">
         <v>98</v>
       </c>
@@ -24151,7 +24339,7 @@
         <v>0.24096897577560555</v>
       </c>
     </row>
-    <row r="65" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:24" x14ac:dyDescent="0.6">
       <c r="G65" t="s">
         <v>99</v>
       </c>
@@ -24212,7 +24400,7 @@
         <v>0.12351458408354343</v>
       </c>
     </row>
-    <row r="66" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:24" x14ac:dyDescent="0.6">
       <c r="G66" t="s">
         <v>100</v>
       </c>
@@ -24273,7 +24461,7 @@
         <v>-1.1453287197231834</v>
       </c>
     </row>
-    <row r="67" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:24" x14ac:dyDescent="0.6">
       <c r="G67" t="s">
         <v>101</v>
       </c>
@@ -24334,7 +24522,7 @@
         <v>0.34715025906735758</v>
       </c>
     </row>
-    <row r="68" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:24" x14ac:dyDescent="0.6">
       <c r="G68" t="s">
         <v>102</v>
       </c>
@@ -24392,7 +24580,7 @@
       </c>
       <c r="X68" s="80"/>
     </row>
-    <row r="69" spans="7:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:24" x14ac:dyDescent="0.6">
       <c r="G69" t="s">
         <v>103</v>
       </c>
@@ -24461,16 +24649,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D834352-229A-4EC6-9564-B652A3999FE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -24529,7 +24717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -24588,7 +24776,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -24647,7 +24835,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -24704,7 +24892,7 @@
       </c>
       <c r="S4" s="77"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -24749,7 +24937,7 @@
       </c>
       <c r="S5" s="77"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -24803,7 +24991,7 @@
       </c>
       <c r="S6" s="77"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -24848,7 +25036,7 @@
       </c>
       <c r="S7" s="77"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -24902,7 +25090,7 @@
       </c>
       <c r="S8" s="77"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -24961,7 +25149,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -25020,7 +25208,7 @@
         <v>6239</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -25079,7 +25267,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -25139,7 +25327,7 @@
         <v>7.9660201955441572</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -25187,7 +25375,7 @@
         <v>6.5785203027041872</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -25244,7 +25432,7 @@
         <v>-3.86896966148442</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -25292,7 +25480,7 @@
         <v>1246.8834688346885</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -25356,20 +25544,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAC1262-2AB0-4E4D-8C6C-5F9DD7C463CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -25428,7 +25616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -25487,7 +25675,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -25546,7 +25734,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -25605,7 +25793,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -25652,7 +25840,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -25708,7 +25896,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -25755,7 +25943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -25811,7 +25999,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -25834,7 +26022,7 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -25857,7 +26045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -25880,7 +26068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -25897,7 +26085,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -25920,7 +26108,7 @@
         <v>-22.7</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -25937,7 +26125,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -25960,7 +26148,7 @@
         <v>-58.5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -26019,7 +26207,7 @@
         <v>395.1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -26078,7 +26266,7 @@
         <v>169.1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -26137,7 +26325,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -26184,7 +26372,7 @@
         <v>160.1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -26240,7 +26428,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -26287,7 +26475,7 @@
         <v>610.5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -26343,7 +26531,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -26399,7 +26587,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -26455,7 +26643,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -26511,7 +26699,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -26555,7 +26743,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -26608,7 +26796,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -26652,7 +26840,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -26705,7 +26893,7 @@
         <v>-70.3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -26761,7 +26949,7 @@
         <v>1219.0999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -26817,7 +27005,7 @@
         <v>152.9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -26873,7 +27061,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -26917,7 +27105,7 @@
         <v>-20.100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -26970,7 +27158,7 @@
         <v>-26.7</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -27014,7 +27202,7 @@
         <v>234.6</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -27067,7 +27255,7 @@
         <v>-23.2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -27126,7 +27314,7 @@
         <v>578.6</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -27185,7 +27373,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -27244,7 +27432,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -27291,7 +27479,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -27347,7 +27535,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -27394,7 +27582,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -27450,7 +27638,7 @@
         <v>194.8</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -27506,7 +27694,7 @@
         <v>691.5</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -27562,7 +27750,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -27618,7 +27806,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -27662,7 +27850,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -27715,7 +27903,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -27759,7 +27947,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -27812,7 +28000,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -27868,7 +28056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -27927,7 +28115,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -27986,7 +28174,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -28042,7 +28230,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -28086,7 +28274,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -28139,7 +28327,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -28183,7 +28371,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -28236,7 +28424,7 @@
         <v>-43.3</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -28292,7 +28480,7 @@
         <v>1260.0999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -28348,7 +28536,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -28404,7 +28592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -28448,7 +28636,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -28501,7 +28689,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -28545,7 +28733,7 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -28606,19 +28794,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23818BFA-2E67-450B-9483-6DB542FD88AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -28677,7 +28865,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -28736,7 +28924,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -28795,7 +28983,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -28855,7 +29043,7 @@
         <v>13.286934514394181</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -28899,7 +29087,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -28952,7 +29140,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -28996,7 +29184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -29049,7 +29237,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -29108,7 +29296,7 @@
         <v>639.6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -29167,7 +29355,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -29226,7 +29414,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -29273,7 +29461,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -29329,7 +29517,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -29376,7 +29564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -29432,7 +29620,7 @@
         <v>489.2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -29491,7 +29679,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -29550,7 +29738,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -29610,7 +29798,7 @@
         <v>43.318485523385306</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -29654,7 +29842,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -29707,7 +29895,7 @@
         <v>-6.6</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -29751,7 +29939,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -29804,7 +29992,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -29860,7 +30048,7 @@
         <v>189.7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -29916,7 +30104,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -29972,7 +30160,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -30016,7 +30204,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -30069,7 +30257,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -30113,7 +30301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -30166,7 +30354,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -30219,7 +30407,7 @@
         <v>229.8</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -30272,7 +30460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -30325,7 +30513,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -30366,7 +30554,7 @@
         <v>139.1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -30416,7 +30604,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -30457,7 +30645,7 @@
         <v>193.4</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -30507,7 +30695,7 @@
         <v>-48.8</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -30566,7 +30754,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -30625,7 +30813,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -30685,7 +30873,7 @@
         <v>38.237810094097519</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -30729,7 +30917,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -30782,7 +30970,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -30826,7 +31014,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -30879,7 +31067,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -30935,7 +31123,7 @@
         <v>374.3</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -30991,7 +31179,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -31047,7 +31235,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -31091,7 +31279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -31144,7 +31332,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -31188,7 +31376,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -31241,7 +31429,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -31300,7 +31488,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -31359,7 +31547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -31419,7 +31607,7 @@
         <v>14.566929133858267</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -31463,7 +31651,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -31516,7 +31704,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>122</v>
       </c>
@@ -31560,7 +31748,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -31613,7 +31801,7 @@
         <v>-47.9</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -31672,7 +31860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A61" s="7" t="s">
         <v>115</v>
       </c>
@@ -31731,7 +31919,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A62" s="9" t="s">
         <v>116</v>
       </c>
@@ -31790,7 +31978,7 @@
         <v>639.6</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A63" s="9" t="s">
         <v>117</v>
       </c>
@@ -31849,7 +32037,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A64" s="9" t="s">
         <v>118</v>
       </c>
@@ -31906,7 +32094,7 @@
       </c>
       <c r="S64" s="90"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A65" s="9" t="s">
         <v>119</v>
       </c>
@@ -31959,7 +32147,7 @@
         <v>229.8</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A66" s="9" t="s">
         <v>120</v>
       </c>
@@ -32018,7 +32206,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A67" s="9" t="s">
         <v>121</v>
       </c>
@@ -32075,7 +32263,7 @@
       </c>
       <c r="S67" s="90"/>
     </row>
-    <row r="68" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A68" s="10" t="s">
         <v>122</v>
       </c>
@@ -32134,7 +32322,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A69" s="7" t="s">
         <v>115</v>
       </c>
@@ -32193,7 +32381,7 @@
         <v>13.286934514394181</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A70" s="9" t="s">
         <v>116</v>
       </c>
@@ -32252,7 +32440,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A71" s="9" t="s">
         <v>117</v>
       </c>
@@ -32311,7 +32499,7 @@
         <v>43.318485523385306</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A72" s="9" t="s">
         <v>118</v>
       </c>
@@ -32368,7 +32556,7 @@
       </c>
       <c r="S72" s="86"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A73" s="9" t="s">
         <v>119</v>
       </c>
@@ -32421,7 +32609,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A74" s="9" t="s">
         <v>120</v>
       </c>
@@ -32480,7 +32668,7 @@
         <v>38.237810094097519</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A75" s="9" t="s">
         <v>121</v>
       </c>
@@ -32537,7 +32725,7 @@
       </c>
       <c r="S75" s="86"/>
     </row>
-    <row r="76" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A76" s="10" t="s">
         <v>122</v>
       </c>
